--- a/BD paper/catalogos/waveform_5_filtered.xlsx
+++ b/BD paper/catalogos/waveform_5_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,26 @@
           <t>Inicio estación más cercana 5</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,6 +610,26 @@
           <t>2014-01-04T00:12:03</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2014-01-04T00:12:03</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2014-01-04T00:12:05</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -662,6 +702,26 @@
           <t>2014-03-04T10:51:23</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2014-03-04T10:51:23</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2014-03-04T10:51:24</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -734,6 +794,26 @@
           <t>2014-03-18T14:36:10</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2014-03-18T14:36:14</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2014-03-18T14:36:14</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -806,6 +886,26 @@
           <t>2014-03-18T21:27:00</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2014-03-18T21:27:00</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2014-03-18T21:27:01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -878,6 +978,26 @@
           <t>2014-03-22T13:30:14</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2014-03-22T13:30:15</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2014-03-22T13:30:15</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +1070,26 @@
           <t>2014-03-23T20:23:18</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2014-03-23T20:23:19</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2014-03-23T20:23:19</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1022,6 +1162,26 @@
           <t>2014-03-24T11:26:51</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2014-03-24T11:26:51</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2014-03-24T11:26:52</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1094,6 +1254,26 @@
           <t>2014-03-24T11:32:28</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2014-03-24T11:32:29</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2014-03-24T11:32:31</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1166,6 +1346,26 @@
           <t>2014-03-24T11:40:57</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2014-03-24T11:40:58</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2014-03-24T11:40:58</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1238,6 +1438,26 @@
           <t>2014-03-24T15:45:44</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2014-03-24T15:45:44</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2014-03-24T15:45:45</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1310,6 +1530,26 @@
           <t>2014-03-25T00:15:27</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2014-03-25T00:15:28</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2014-03-25T00:15:30</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1382,6 +1622,26 @@
           <t>2014-04-02T04:20:03</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2014-04-02T04:20:05</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2014-04-02T04:20:05</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1454,6 +1714,26 @@
           <t>2014-04-02T04:46:31</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2014-04-02T04:46:33</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2014-04-02T04:46:33</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1526,6 +1806,26 @@
           <t>2014-04-02T19:46:01</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2014-04-02T19:46:01</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2014-04-02T19:46:03</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1598,6 +1898,26 @@
           <t>2014-04-03T02:56:16</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:56:17</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2014-04-03T02:56:18</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1670,6 +1990,26 @@
           <t>2014-04-03T09:09:07</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2014-04-03T09:09:08</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2014-04-03T09:09:10</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1742,6 +2082,26 @@
           <t>2014-04-03T15:08:23</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2014-04-03T15:08:23</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2014-04-03T15:08:24</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1814,6 +2174,26 @@
           <t>2014-04-05T04:05:15</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2014-04-05T04:05:16</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2014-04-05T04:05:18</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1886,6 +2266,26 @@
           <t>2014-04-11T12:01:02</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2014-04-11T12:01:03</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2014-04-11T12:01:03</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1958,6 +2358,26 @@
           <t>2014-04-14T05:56:32</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2014-04-14T05:56:34</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2014-04-14T05:56:35</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2030,6 +2450,26 @@
           <t>2014-04-15T16:09:46</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2014-04-15T16:09:50</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2014-04-15T16:09:50</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2102,6 +2542,26 @@
           <t>2014-04-15T16:21:28</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2014-04-15T16:21:31</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2014-04-15T16:21:32</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2174,6 +2634,26 @@
           <t>2014-04-15T17:12:32</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2014-04-15T17:12:35</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2014-04-15T17:12:36</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2246,6 +2726,26 @@
           <t>2014-04-16T03:14:23</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2014-04-16T03:14:27</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2014-04-16T03:14:27</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2318,6 +2818,26 @@
           <t>2014-04-19T20:54:58</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2014-04-19T20:55:00</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2014-04-19T20:55:00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2390,6 +2910,26 @@
           <t>2014-04-20T07:55:12</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2014-04-20T07:55:12</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2014-04-20T07:55:13</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2462,6 +3002,26 @@
           <t>2014-04-21T13:39:19</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2014-04-21T13:39:20</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2014-04-21T13:39:21</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2534,6 +3094,26 @@
           <t>2014-04-24T10:27:05</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2014-04-24T10:27:06</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2014-04-24T10:27:07</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2606,6 +3186,26 @@
           <t>2014-04-28T04:59:46</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2014-04-28T04:59:47</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2014-04-28T04:59:47</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2678,6 +3278,26 @@
           <t>2014-05-30T15:32:35</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2014-05-30T15:32:37</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2014-05-30T15:32:37</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2750,6 +3370,26 @@
           <t>2014-06-19T09:38:49</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2014-06-19T09:38:50</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2014-06-19T09:38:50</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2822,6 +3462,26 @@
           <t>2014-06-19T19:59:59</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2014-06-19T20:00:00</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2014-06-19T20:00:01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2894,6 +3554,26 @@
           <t>2014-06-20T20:22:42</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2014-06-20T20:22:44</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2014-06-20T20:22:44</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2966,6 +3646,26 @@
           <t>2014-07-13T20:54:23</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2014-07-13T20:54:23</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2014-07-13T20:54:25</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3038,6 +3738,26 @@
           <t>2014-10-14T09:16:52</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>BO03</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2014-10-14T09:16:53</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2014-10-14T09:16:54</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3110,6 +3830,26 @@
           <t>2014-10-23T23:39:04</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>GO05</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2014-10-23T23:39:04</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2014-10-23T23:39:05</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3182,6 +3922,26 @@
           <t>2014-12-03T09:38:46</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>PX06</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2014-12-03T09:38:48</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2014-12-03T09:38:49</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3254,6 +4014,26 @@
           <t>2015-05-14T15:08:18</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2015-05-14T15:08:19</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2015-05-14T15:08:23</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3326,6 +4106,26 @@
           <t>2015-05-29T04:28:29</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>AC07</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2015-05-29T04:28:30</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2015-05-29T04:28:32</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3398,6 +4198,26 @@
           <t>2015-08-12T00:14:54</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2015-08-12T00:14:57</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2015-08-12T00:14:57</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3470,6 +4290,26 @@
           <t>2015-09-16T23:38:18</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2015-09-16T23:38:20</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2015-09-16T23:38:21</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3542,6 +4382,26 @@
           <t>2015-09-17T04:02:28</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2015-09-17T04:02:29</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2015-09-17T04:02:29</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3614,6 +4474,26 @@
           <t>2015-09-17T04:18:43</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2015-09-17T04:18:43</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2015-09-17T04:18:43</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3686,6 +4566,26 @@
           <t>2015-09-17T05:44:56</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2015-09-17T05:44:58</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2015-09-17T05:44:59</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3758,6 +4658,26 @@
           <t>2015-09-17T06:36:47</t>
         </is>
       </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>GO01</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2015-09-17T06:36:48</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2015-09-17T06:36:49</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3830,6 +4750,26 @@
           <t>2015-09-17T10:31:39</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2015-09-17T10:31:39</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2015-09-17T10:31:40</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3902,6 +4842,26 @@
           <t>2015-09-17T12:14:40</t>
         </is>
       </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>VA05</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:41</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:44</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3974,6 +4934,26 @@
           <t>2015-09-17T12:10:01</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:10:01</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:10:02</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4046,6 +5026,26 @@
           <t>2015-09-17T13:32:45</t>
         </is>
       </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2015-09-17T13:32:45</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2015-09-17T13:32:46</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4118,6 +5118,26 @@
           <t>2015-09-17T16:08:47</t>
         </is>
       </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2015-09-17T16:08:47</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2015-09-17T16:08:47</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4190,6 +5210,26 @@
           <t>2015-09-17T20:24:48</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2015-09-17T20:24:48</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2015-09-17T20:24:50</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4262,6 +5302,26 @@
           <t>2015-09-17T22:39:36</t>
         </is>
       </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2015-09-17T22:39:36</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2015-09-17T22:39:36</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4334,6 +5394,26 @@
           <t>2015-09-19T09:07:24</t>
         </is>
       </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2015-09-19T09:07:24</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2015-09-19T09:07:24</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4406,6 +5486,26 @@
           <t>2015-09-19T13:09:13</t>
         </is>
       </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2015-09-19T13:09:14</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2015-09-19T13:09:14</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4478,6 +5578,26 @@
           <t>2015-09-27T21:05:01</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2015-09-27T21:05:03</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2015-09-27T21:05:04</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4550,6 +5670,26 @@
           <t>2015-09-16T23:09:20</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2015-09-16T23:09:20</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2015-09-16T23:09:21</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4622,6 +5762,26 @@
           <t>2015-10-03T06:27:04</t>
         </is>
       </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2015-10-03T06:27:04</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2015-10-03T06:27:07</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4694,6 +5854,26 @@
           <t>2015-10-04T03:50:04</t>
         </is>
       </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>2015-10-04T03:50:04</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>2015-10-04T03:50:05</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4766,6 +5946,26 @@
           <t>2015-10-04T10:12:07</t>
         </is>
       </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>2015-10-04T10:12:07</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>2015-10-04T10:12:07</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4838,6 +6038,26 @@
           <t>2015-10-05T16:33:34</t>
         </is>
       </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>2015-10-05T16:33:34</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>2015-10-05T16:33:38</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4910,6 +6130,26 @@
           <t>2015-10-12T03:15:36</t>
         </is>
       </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>2015-10-12T03:15:37</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>2015-10-12T03:15:37</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4982,6 +6222,26 @@
           <t>2015-09-17T03:12:53</t>
         </is>
       </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>2015-09-17T03:12:54</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>2015-09-17T03:12:55</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5054,6 +6314,26 @@
           <t>2015-11-06T08:44:22</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>2015-11-06T08:44:24</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>2015-11-06T08:44:24</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5126,6 +6406,26 @@
           <t>2015-11-07T10:53:54</t>
         </is>
       </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2015-11-07T10:53:54</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>2015-11-07T10:53:54</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5198,6 +6498,26 @@
           <t>2015-12-08T12:56:20</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2015-12-08T12:56:20</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>2015-12-08T12:56:21</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5270,6 +6590,26 @@
           <t>2016-02-22T06:37:18</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>2016-02-22T06:37:18</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2016-02-22T06:37:19</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5342,6 +6682,26 @@
           <t>2016-04-16T06:05:37</t>
         </is>
       </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>GO02</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>2016-04-16T06:05:38</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2016-04-16T06:05:40</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5414,6 +6774,26 @@
           <t>2016-06-05T05:51:28</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>AC04</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>2016-06-05T05:51:28</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2016-06-05T05:51:29</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5486,6 +6866,26 @@
           <t>2016-06-06T13:16:10</t>
         </is>
       </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:16:10</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:16:13</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5558,6 +6958,26 @@
           <t>2016-06-06T13:22:07</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:22:07</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>2016-06-06T13:22:10</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5630,6 +7050,26 @@
           <t>2016-07-18T02:59:03</t>
         </is>
       </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>2016-07-18T02:59:03</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2016-07-18T02:59:04</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5702,6 +7142,26 @@
           <t>2016-07-19T05:18:53</t>
         </is>
       </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>2016-07-19T05:18:54</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>2016-07-19T05:18:55</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5774,6 +7234,26 @@
           <t>2016-10-27T20:33:07</t>
         </is>
       </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>MT01</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>2016-10-27T20:33:09</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>2016-10-27T20:33:09</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5846,6 +7326,26 @@
           <t>2015-09-17T12:14:41</t>
         </is>
       </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>VA05</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:42</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2015-09-17T12:14:45</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5918,6 +7418,26 @@
           <t>2015-09-19T13:09:13</t>
         </is>
       </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>2015-09-19T13:09:14</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>2015-09-19T13:09:14</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5990,6 +7510,26 @@
           <t>2015-09-19T09:07:24</t>
         </is>
       </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>2015-09-19T09:07:24</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2015-09-19T09:07:24</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6062,6 +7602,26 @@
           <t>2017-02-03T00:52:35</t>
         </is>
       </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>CLCH</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>DG13</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>2017-02-03T00:52:36</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>2017-02-03T00:52:36</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6134,6 +7694,26 @@
           <t>2017-03-31T18:44:49</t>
         </is>
       </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>2017-03-31T18:44:49</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>2017-03-31T18:44:50</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6206,6 +7786,26 @@
           <t>2017-04-28T15:30:17</t>
         </is>
       </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>RPCO</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:30:17</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:30:17</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6278,6 +7878,26 @@
           <t>2017-04-28T15:58:46</t>
         </is>
       </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>MT01</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:58:46</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>2017-04-28T15:58:46</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6350,6 +7970,26 @@
           <t>2017-04-28T16:06:06</t>
         </is>
       </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:06:06</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>2017-04-28T16:06:06</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6422,6 +8062,26 @@
           <t>2017-06-12T02:43:41</t>
         </is>
       </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>2017-06-12T02:43:46</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>2017-06-12T02:43:47</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6494,6 +8154,26 @@
           <t>2014-06-04T17:04:40</t>
         </is>
       </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>2014-06-04T17:04:41</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>2014-06-04T17:04:43</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6566,6 +8246,26 @@
           <t>2017-08-12T12:54:29</t>
         </is>
       </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>2017-08-12T12:54:29</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>2017-08-12T12:54:29</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6638,6 +8338,26 @@
           <t>2017-09-04T21:55:28</t>
         </is>
       </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>GO01</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>AP02</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>2017-09-04T21:55:30</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>2017-09-04T21:55:31</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6710,6 +8430,26 @@
           <t>2017-09-18T13:47:14</t>
         </is>
       </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>2017-09-18T13:47:16</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>2017-09-18T13:47:17</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6782,6 +8522,26 @@
           <t>2017-12-28T03:55:09</t>
         </is>
       </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>2017-12-28T03:55:10</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>2017-12-28T03:55:15</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6854,6 +8614,26 @@
           <t>2018-09-22T13:14:18</t>
         </is>
       </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>2018-09-22T13:14:19</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>2018-09-22T13:14:23</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6926,6 +8706,26 @@
           <t>2018-09-23T05:32:24</t>
         </is>
       </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>2018-09-23T05:32:28</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>2018-09-23T05:32:31</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6998,6 +8798,26 @@
           <t>2019-01-30T07:45:03</t>
         </is>
       </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>AC02</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>2019-01-30T07:45:05</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>2019-01-30T07:45:07</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7070,6 +8890,26 @@
           <t>2019-03-07T15:34:48</t>
         </is>
       </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>2019-03-07T15:34:52</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>2019-03-07T15:34:52</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7142,6 +8982,26 @@
           <t>2019-03-16T18:06:25</t>
         </is>
       </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>2019-03-16T18:06:25</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>2019-03-16T18:06:27</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7214,6 +9074,26 @@
           <t>2019-03-28T15:05:46</t>
         </is>
       </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>2019-03-28T15:05:51</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>2019-03-28T15:05:53</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7286,6 +9166,26 @@
           <t>2019-04-18T04:06:48</t>
         </is>
       </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>AC04</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>2019-04-18T04:06:48</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>2019-04-18T04:06:51</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7358,6 +9258,26 @@
           <t>2019-04-26T06:22:54</t>
         </is>
       </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>2019-04-26T06:22:55</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>2019-04-26T06:22:59</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7430,6 +9350,26 @@
           <t>2019-06-03T08:42:27</t>
         </is>
       </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>2019-06-03T08:42:29</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>2019-06-03T08:42:29</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7502,6 +9442,26 @@
           <t>2019-08-02T00:55:27</t>
         </is>
       </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>MT01</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>BO01</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:55:27</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>2019-08-02T00:55:29</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7574,6 +9534,26 @@
           <t>2019-09-26T20:31:35</t>
         </is>
       </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>2019-09-26T20:31:36</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>2019-09-26T20:31:39</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7646,6 +9626,26 @@
           <t>2019-12-03T07:29:44</t>
         </is>
       </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>2019-12-03T07:29:45</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>2019-12-03T07:29:46</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7718,6 +9718,26 @@
           <t>2020-01-28T18:17:01</t>
         </is>
       </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>2020-01-28T18:17:02</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>2020-01-28T18:17:02</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7790,6 +9810,26 @@
           <t>2020-02-11T13:50:21</t>
         </is>
       </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>PB19</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>2020-02-11T13:50:25</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>2020-02-11T13:50:29</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7862,6 +9902,26 @@
           <t>2020-02-13T05:50:52</t>
         </is>
       </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>2020-02-13T05:50:53</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>2020-02-13T05:50:54</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7934,6 +9994,26 @@
           <t>2020-03-24T06:52:29</t>
         </is>
       </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>2020-03-24T06:52:30</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>2020-03-24T06:52:30</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -8006,6 +10086,26 @@
           <t>2020-09-01T05:29:52</t>
         </is>
       </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>2020-09-01T05:29:55</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>2020-09-01T05:29:55</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -8078,6 +10178,26 @@
           <t>2020-09-01T07:01:41</t>
         </is>
       </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>2020-09-01T07:01:43</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>2020-09-01T07:01:44</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -8150,6 +10270,26 @@
           <t>2020-09-01T10:32:06</t>
         </is>
       </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>2020-09-01T10:32:10</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>2020-09-01T10:32:11</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -8222,6 +10362,26 @@
           <t>2020-10-21T09:13:29</t>
         </is>
       </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>AC02</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>2020-10-21T09:13:32</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>2020-10-21T09:13:34</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -8294,6 +10454,26 @@
           <t>2020-10-25T21:17:29</t>
         </is>
       </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>2020-10-25T21:17:31</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>2020-10-25T21:17:31</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8366,6 +10546,26 @@
           <t>2020-10-28T14:53:22</t>
         </is>
       </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>2020-10-28T14:53:22</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>2020-10-28T14:53:23</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8436,6 +10636,26 @@
       <c r="P111" t="inlineStr">
         <is>
           <t>2020-11-21T02:12:00</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>2020-11-21T02:12:00</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>2020-11-21T02:12:01</t>
         </is>
       </c>
     </row>

--- a/BD paper/catalogos/waveform_5_filtered.xlsx
+++ b/BD paper/catalogos/waveform_5_filtered.xlsx
@@ -495,37 +495,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Inicio estación más cercana 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 6</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 7</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -587,37 +587,37 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2014-01-04T00:11:56</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2014-01-04T00:11:56</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2014-01-04T00:11:58</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2014-01-04T00:12:01</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2014-01-04T00:12:03</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -679,37 +679,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2014-03-04T10:51:18</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2014-03-04T10:51:20</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2014-03-04T10:51:21</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2014-03-04T10:51:21</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2014-03-04T10:51:23</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -771,37 +771,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2014-03-18T14:36:07</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2014-03-18T14:36:08</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2014-03-18T14:36:09</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2014-03-18T14:36:10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2014-03-18T14:36:10</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -863,37 +863,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2014-03-18T21:26:55</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2014-03-18T21:26:55</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2014-03-18T21:26:57</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2014-03-18T21:26:58</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2014-03-18T21:27:00</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -955,37 +955,37 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>2014-03-22T13:30:09</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2014-03-22T13:30:11</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2014-03-22T13:30:12</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2014-03-22T13:30:14</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2014-03-22T13:30:14</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1047,37 +1047,37 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2014-03-23T20:23:13</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2014-03-23T20:23:14</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2014-03-23T20:23:16</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2014-03-23T20:23:17</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2014-03-23T20:23:18</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1139,37 +1139,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2014-03-24T11:26:45</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2014-03-24T11:26:46</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2014-03-24T11:26:49</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2014-03-24T11:26:49</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2014-03-24T11:26:51</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1231,37 +1231,37 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>2014-03-24T11:32:24</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2014-03-24T11:32:25</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2014-03-24T11:32:28</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>2014-03-24T11:32:28</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2014-03-24T11:32:28</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1323,37 +1323,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2014-03-24T11:40:52</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2014-03-24T11:40:53</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2014-03-24T11:40:55</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2014-03-24T11:40:56</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2014-03-24T11:40:57</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1415,37 +1415,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>2014-03-24T15:45:37</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2014-03-24T15:45:40</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2014-03-24T15:45:42</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2014-03-24T15:45:43</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2014-03-24T15:45:44</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>TA01</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1507,37 +1507,37 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>2014-03-25T00:15:23</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2014-03-25T00:15:25</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2014-03-25T00:15:27</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2014-03-25T00:15:27</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2014-03-25T00:15:27</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1599,37 +1599,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2014-04-02T04:19:59</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2014-04-02T04:20:00</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2014-04-02T04:20:02</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2014-04-02T04:20:03</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2014-04-02T04:20:03</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1691,37 +1691,37 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>2014-04-02T04:46:27</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2014-04-02T04:46:28</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2014-04-02T04:46:29</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2014-04-02T04:46:30</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2014-04-02T04:46:31</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1783,37 +1783,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>2014-04-02T19:45:54</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2014-04-02T19:45:55</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>2014-04-02T19:45:56</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2014-04-02T19:45:58</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2014-04-02T19:46:01</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1875,37 +1875,37 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>2014-04-03T02:56:09</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2014-04-03T02:56:09</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>2014-04-03T02:56:12</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2014-04-03T02:56:14</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2014-04-03T02:56:16</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1967,37 +1967,37 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2014-04-03T09:09:02</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2014-04-03T09:09:03</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>2014-04-03T09:09:05</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2014-04-03T09:09:06</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>2014-04-03T09:09:07</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2059,37 +2059,37 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>2014-04-03T15:08:16</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2014-04-03T15:08:17</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>2014-04-03T15:08:17</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2014-04-03T15:08:20</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2014-04-03T15:08:23</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2151,37 +2151,37 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>2014-04-05T04:05:09</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2014-04-05T04:05:09</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>2014-04-05T04:05:11</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2014-04-05T04:05:14</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>2014-04-05T04:05:15</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2243,37 +2243,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>2014-04-11T12:00:57</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2014-04-11T12:00:59</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>2014-04-11T12:00:59</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2014-04-11T12:01:00</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>2014-04-11T12:01:02</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2335,37 +2335,37 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2014-04-14T05:56:26</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2014-04-14T05:56:26</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>2014-04-14T05:56:29</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>2014-04-14T05:56:31</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>2014-04-14T05:56:32</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2427,37 +2427,37 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>2014-04-15T16:09:43</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2014-04-15T16:09:44</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>2014-04-15T16:09:46</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2014-04-15T16:09:46</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2014-04-15T16:09:46</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2519,37 +2519,37 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2014-04-15T16:21:24</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2014-04-15T16:21:25</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>2014-04-15T16:21:28</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2014-04-15T16:21:28</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2014-04-15T16:21:28</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2611,37 +2611,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>2014-04-15T17:12:28</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2014-04-15T17:12:29</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>2014-04-15T17:12:32</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2014-04-15T17:12:32</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2014-04-15T17:12:32</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2703,37 +2703,37 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>2014-04-16T03:14:20</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2014-04-16T03:14:21</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>2014-04-16T03:14:23</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>2014-04-16T03:14:23</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>2014-04-16T03:14:23</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2795,37 +2795,37 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>2014-04-19T20:54:54</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2014-04-19T20:54:55</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>2014-04-19T20:54:55</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2014-04-19T20:54:57</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2014-04-19T20:54:58</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2887,37 +2887,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>2014-04-20T07:55:08</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2014-04-20T07:55:08</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>2014-04-20T07:55:10</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2014-04-20T07:55:11</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2014-04-20T07:55:12</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2979,37 +2979,37 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>2014-04-21T13:39:14</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2014-04-21T13:39:17</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>2014-04-21T13:39:18</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>2014-04-21T13:39:19</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>2014-04-21T13:39:19</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3071,37 +3071,37 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>2014-04-24T10:27:01</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2014-04-24T10:27:01</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>2014-04-24T10:27:03</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>2014-04-24T10:27:04</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>2014-04-24T10:27:05</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3163,37 +3163,37 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>2014-04-28T04:59:38</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2014-04-28T04:59:43</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>2014-04-28T04:59:45</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>2014-04-28T04:59:45</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>2014-04-28T04:59:46</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3255,37 +3255,37 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>2014-05-30T15:32:28</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2014-05-30T15:32:33</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>2014-05-30T15:32:33</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>2014-05-30T15:32:34</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>2014-05-30T15:32:35</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3347,37 +3347,37 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>2014-06-19T09:38:44</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2014-06-19T09:38:45</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>2014-06-19T09:38:46</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>2014-06-19T09:38:47</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>2014-06-19T09:38:49</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3439,37 +3439,37 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>2014-06-19T19:59:55</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>2014-06-19T19:59:56</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>2014-06-19T19:59:58</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>2014-06-19T19:59:58</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>2014-06-19T19:59:59</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3531,37 +3531,37 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>2014-06-20T20:22:38</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2014-06-20T20:22:39</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>2014-06-20T20:22:41</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>2014-06-20T20:22:41</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>2014-06-20T20:22:42</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3623,37 +3623,37 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>2014-07-13T20:54:16</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2014-07-13T20:54:18</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>2014-07-13T20:54:19</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>2014-07-13T20:54:22</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>2014-07-13T20:54:23</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3715,37 +3715,37 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>BO03</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>2014-10-14T09:16:48</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2014-10-14T09:16:50</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>2014-10-14T09:16:50</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>2014-10-14T09:16:50</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>2014-10-14T09:16:52</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>BO03</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3807,37 +3807,37 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>GO05</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>2014-10-23T23:38:59</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2014-10-23T23:39:00</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>2014-10-23T23:39:00</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2014-10-23T23:39:00</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>2014-10-23T23:39:04</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>GO05</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3899,37 +3899,37 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>PX06</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>2014-12-03T09:38:39</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>2014-12-03T09:38:40</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>2014-12-03T09:38:45</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>2014-12-03T09:38:45</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>2014-12-03T09:38:46</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>PX06</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>PB07</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3991,37 +3991,37 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>2015-05-14T15:08:08</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2015-05-14T15:08:10</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>2015-05-14T15:08:17</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>2015-05-14T15:08:18</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>2015-05-14T15:08:18</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>GO03</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4083,37 +4083,37 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>AC07</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>2015-05-29T04:28:18</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>2015-05-29T04:28:26</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>2015-05-29T04:28:27</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>2015-05-29T04:28:28</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>2015-05-29T04:28:29</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>AC07</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4175,37 +4175,37 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>2015-08-12T00:14:47</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>2015-08-12T00:14:48</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>2015-08-12T00:14:51</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>2015-08-12T00:14:53</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>2015-08-12T00:14:54</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>ROC1</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>MT07</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4267,37 +4267,37 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>2015-09-16T23:38:13</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>2015-09-16T23:38:14</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>2015-09-16T23:38:15</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>2015-09-16T23:38:16</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>2015-09-16T23:38:18</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4359,37 +4359,37 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>2015-09-17T04:02:18</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>2015-09-17T04:02:20</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>2015-09-17T04:02:25</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>2015-09-17T04:02:25</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>2015-09-17T04:02:28</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4451,37 +4451,37 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>2015-09-17T04:18:35</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>2015-09-17T04:18:37</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>2015-09-17T04:18:39</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>2015-09-17T04:18:43</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>2015-09-17T04:18:43</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4543,37 +4543,37 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>2015-09-17T05:44:52</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>2015-09-17T05:44:53</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>2015-09-17T05:44:54</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>2015-09-17T05:44:55</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>2015-09-17T05:44:56</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4635,37 +4635,37 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>GO01</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>2015-09-17T06:36:38</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2015-09-17T06:36:39</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>2015-09-17T06:36:39</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>2015-09-17T06:36:43</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>2015-09-17T06:36:47</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>GO01</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4727,37 +4727,37 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>2015-09-17T10:31:30</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2015-09-17T10:31:32</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>2015-09-17T10:31:35</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>2015-09-17T10:31:39</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>2015-09-17T10:31:39</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CO05</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4819,37 +4819,37 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>VA05</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>2015-09-17T12:14:35</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2015-09-17T12:14:37</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>2015-09-17T12:14:40</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>2015-09-17T12:14:40</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>2015-09-17T12:14:40</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>VA05</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4911,37 +4911,37 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>2015-09-17T12:09:55</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2015-09-17T12:09:56</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>2015-09-17T12:09:57</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>2015-09-17T12:09:58</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>2015-09-17T12:10:01</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CO02</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -5003,37 +5003,37 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>2015-09-17T13:32:39</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2015-09-17T13:32:40</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>2015-09-17T13:32:42</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>2015-09-17T13:32:42</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>2015-09-17T13:32:45</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CO02</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5095,37 +5095,37 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>2015-09-17T16:08:39</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2015-09-17T16:08:41</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>2015-09-17T16:08:43</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>2015-09-17T16:08:47</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>2015-09-17T16:08:47</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5187,37 +5187,37 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>2015-09-17T20:24:42</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2015-09-17T20:24:45</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>2015-09-17T20:24:46</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>2015-09-17T20:24:47</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>2015-09-17T20:24:48</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5279,37 +5279,37 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>2015-09-17T22:39:25</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2015-09-17T22:39:29</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>2015-09-17T22:39:33</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>2015-09-17T22:39:35</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>2015-09-17T22:39:36</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>CO05</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5371,37 +5371,37 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>2015-09-19T09:07:14</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>2015-09-19T09:07:16</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>2015-09-19T09:07:20</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>2015-09-19T09:07:23</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>2015-09-19T09:07:24</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5463,37 +5463,37 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>2015-09-19T13:09:04</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>2015-09-19T13:09:09</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>2015-09-19T13:09:10</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>2015-09-19T13:09:11</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>2015-09-19T13:09:13</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5555,37 +5555,37 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>2015-09-27T21:04:54</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>2015-09-27T21:04:55</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>2015-09-27T21:04:58</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>2015-09-27T21:04:58</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>2015-09-27T21:05:01</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5647,37 +5647,37 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
           <t>2015-09-16T23:09:10</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>2015-09-16T23:09:12</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>2015-09-16T23:09:15</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>2015-09-16T23:09:19</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>2015-09-16T23:09:20</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>IN40</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5739,37 +5739,37 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>2015-10-03T06:26:59</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>2015-10-03T06:27:00</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>2015-10-03T06:27:00</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>2015-10-03T06:27:01</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>2015-10-03T06:27:04</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>CO03</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5831,37 +5831,37 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>2015-10-04T03:49:56</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2015-10-04T03:49:59</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>2015-10-04T03:50:00</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>2015-10-04T03:50:00</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>2015-10-04T03:50:04</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5923,37 +5923,37 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>2015-10-04T10:11:56</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>2015-10-04T10:12:05</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>2015-10-04T10:12:06</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>2015-10-04T10:12:06</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>2015-10-04T10:12:07</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>CO03</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -6015,37 +6015,37 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>2015-10-05T16:33:30</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>2015-10-05T16:33:31</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>2015-10-05T16:33:31</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>2015-10-05T16:33:32</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>2015-10-05T16:33:34</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>CO03</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6107,37 +6107,37 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>2015-10-12T03:15:26</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>2015-10-12T03:15:28</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>2015-10-12T03:15:33</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>2015-10-12T03:15:34</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>2015-10-12T03:15:36</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6199,37 +6199,37 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>2015-09-17T03:12:46</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>2015-09-17T03:12:47</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>2015-09-17T03:12:48</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>2015-09-17T03:12:53</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>2015-09-17T03:12:53</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>CO05</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6291,37 +6291,37 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>2015-11-06T08:44:17</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>2015-11-06T08:44:18</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>2015-11-06T08:44:19</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>2015-11-06T08:44:19</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>2015-11-06T08:44:22</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6383,37 +6383,37 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>2015-11-07T10:53:46</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>2015-11-07T10:53:52</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>2015-11-07T10:53:52</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>2015-11-07T10:53:53</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>2015-11-07T10:53:54</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>IN40</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6475,37 +6475,37 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>2015-12-08T12:56:09</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>2015-12-08T12:56:17</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>2015-12-08T12:56:19</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>2015-12-08T12:56:19</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>2015-12-08T12:56:20</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6567,37 +6567,37 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
           <t>2016-02-22T06:37:08</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>2016-02-22T06:37:13</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>2016-02-22T06:37:14</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>2016-02-22T06:37:15</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>2016-02-22T06:37:18</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>CO02</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6659,37 +6659,37 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>GO02</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>2016-04-16T06:05:32</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>2016-04-16T06:05:32</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>2016-04-16T06:05:35</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>2016-04-16T06:05:37</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>2016-04-16T06:05:37</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>GO03</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>GO02</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6751,37 +6751,37 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>AC04</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>2016-06-05T05:51:15</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>2016-06-05T05:51:21</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>2016-06-05T05:51:22</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>2016-06-05T05:51:22</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>2016-06-05T05:51:28</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>AC04</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6843,37 +6843,37 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
           <t>2016-06-06T13:16:03</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>2016-06-06T13:16:04</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>2016-06-06T13:16:05</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>2016-06-06T13:16:10</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>2016-06-06T13:16:10</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -6935,37 +6935,37 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>2016-06-06T13:22:01</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>2016-06-06T13:22:02</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>2016-06-06T13:22:02</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>2016-06-06T13:22:07</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>2016-06-06T13:22:07</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -7027,37 +7027,37 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>2016-07-18T02:58:52</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>2016-07-18T02:59:01</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>2016-07-18T02:59:01</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>2016-07-18T02:59:02</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>2016-07-18T02:59:03</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7119,37 +7119,37 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>2016-07-19T05:18:47</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>2016-07-19T05:18:48</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>2016-07-19T05:18:49</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>2016-07-19T05:18:49</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>2016-07-19T05:18:53</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7211,37 +7211,37 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>MT01</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>2016-10-27T20:33:05</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>2016-10-27T20:33:06</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>2016-10-27T20:33:06</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>2016-10-27T20:33:07</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>2016-10-27T20:33:07</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>MT01</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>VA01</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -7303,37 +7303,37 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>VA05</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>2015-09-17T12:14:36</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>2015-09-17T12:14:39</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>2015-09-17T12:14:40</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>2015-09-17T12:14:41</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>2015-09-17T12:14:41</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>VA05</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7395,37 +7395,37 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>2015-09-19T13:09:04</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>2015-09-19T13:09:09</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>2015-09-19T13:09:10</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>2015-09-19T13:09:11</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>2015-09-19T13:09:13</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7487,37 +7487,37 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>2015-09-19T09:07:14</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>2015-09-19T09:07:16</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>2015-09-19T09:07:20</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>2015-09-19T09:07:23</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>2015-09-19T09:07:24</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>IN41</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7579,37 +7579,37 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
+          <t>CLCH</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>DG13</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>2017-02-03T00:52:32</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>2017-02-03T00:52:32</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>2017-02-03T00:52:33</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>2017-02-03T00:52:34</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>2017-02-03T00:52:35</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>CLCH</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>DG13</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -7671,37 +7671,37 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
           <t>2017-03-31T18:44:39</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>2017-03-31T18:44:47</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>2017-03-31T18:44:48</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>2017-03-31T18:44:48</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>2017-03-31T18:44:49</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -7763,37 +7763,37 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>RPCO</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
           <t>2017-04-28T15:30:09</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>2017-04-28T15:30:10</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>2017-04-28T15:30:13</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>2017-04-28T15:30:15</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>2017-04-28T15:30:17</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>RPCO</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -7855,37 +7855,37 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
+          <t>MT01</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
           <t>2017-04-28T15:58:37</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>2017-04-28T15:58:39</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>2017-04-28T15:58:41</t>
         </is>
       </c>
-      <c r="O81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>2017-04-28T15:58:44</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>2017-04-28T15:58:46</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>MT01</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>MT07</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7947,37 +7947,37 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
           <t>2017-04-28T16:05:58</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>2017-04-28T16:05:59</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>2017-04-28T16:06:04</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>2017-04-28T16:06:04</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="R82" t="inlineStr">
         <is>
           <t>2017-04-28T16:06:06</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>VA06</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -8039,37 +8039,37 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
           <t>2017-06-12T02:43:35</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>2017-06-12T02:43:37</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>2017-06-12T02:43:37</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>2017-06-12T02:43:41</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="R83" t="inlineStr">
         <is>
           <t>2017-06-12T02:43:41</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8131,37 +8131,37 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
           <t>2014-06-04T17:04:34</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>2014-06-04T17:04:34</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>2014-06-04T17:04:36</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>2014-06-04T17:04:38</t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="R84" t="inlineStr">
         <is>
           <t>2014-06-04T17:04:40</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -8223,37 +8223,37 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
           <t>2017-08-12T12:54:21</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t>2017-08-12T12:54:23</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>2017-08-12T12:54:24</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>2017-08-12T12:54:24</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="R85" t="inlineStr">
         <is>
           <t>2017-08-12T12:54:29</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -8315,37 +8315,37 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
+          <t>GO01</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>AP02</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
           <t>2017-09-04T21:55:23</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>2017-09-04T21:55:23</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>2017-09-04T21:55:24</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>2017-09-04T21:55:27</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="R86" t="inlineStr">
         <is>
           <t>2017-09-04T21:55:28</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>GO01</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>AP02</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -8407,37 +8407,37 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
           <t>2017-09-18T13:47:10</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>2017-09-18T13:47:10</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>2017-09-18T13:47:12</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>2017-09-18T13:47:13</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="R87" t="inlineStr">
         <is>
           <t>2017-09-18T13:47:14</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -8499,37 +8499,37 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
           <t>2017-12-28T03:54:55</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>2017-12-28T03:54:59</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>2017-12-28T03:55:08</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>2017-12-28T03:55:08</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>2017-12-28T03:55:09</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>PB10</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>PB15</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
@@ -8591,37 +8591,37 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
           <t>2018-09-22T13:14:04</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>2018-09-22T13:14:15</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>2018-09-22T13:14:16</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>2018-09-22T13:14:17</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="R89" t="inlineStr">
         <is>
           <t>2018-09-22T13:14:18</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>AC06</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>GO03</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8683,37 +8683,37 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
           <t>2018-09-23T05:32:17</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>2018-09-23T05:32:22</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t>2018-09-23T05:32:22</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>2018-09-23T05:32:23</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="R90" t="inlineStr">
         <is>
           <t>2018-09-23T05:32:24</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>PB05</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8775,37 +8775,37 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>AC02</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
           <t>2019-01-30T07:44:48</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>2019-01-30T07:45:01</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>2019-01-30T07:45:02</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>2019-01-30T07:45:02</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="R91" t="inlineStr">
         <is>
           <t>2019-01-30T07:45:03</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>AC06</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>AC02</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -8867,37 +8867,37 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
           <t>2019-03-07T15:34:43</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>2019-03-07T15:34:46</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>2019-03-07T15:34:46</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>2019-03-07T15:34:46</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="R92" t="inlineStr">
         <is>
           <t>2019-03-07T15:34:48</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -8959,37 +8959,37 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
           <t>2019-03-16T18:06:19</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>2019-03-16T18:06:19</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>2019-03-16T18:06:19</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>2019-03-16T18:06:22</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="R93" t="inlineStr">
         <is>
           <t>2019-03-16T18:06:25</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>CO06</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -9051,37 +9051,37 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
           <t>2019-03-28T15:05:34</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>2019-03-28T15:05:41</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>2019-03-28T15:05:44</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>2019-03-28T15:05:46</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="R94" t="inlineStr">
         <is>
           <t>2019-03-28T15:05:46</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>AC01</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -9143,37 +9143,37 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>AC04</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
           <t>2019-04-18T04:06:36</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>2019-04-18T04:06:42</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>2019-04-18T04:06:43</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>2019-04-18T04:06:43</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="R95" t="inlineStr">
         <is>
           <t>2019-04-18T04:06:48</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>AC04</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -9235,37 +9235,37 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
           <t>2019-04-26T06:22:40</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>2019-04-26T06:22:51</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>2019-04-26T06:22:52</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>2019-04-26T06:22:53</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
+      <c r="R96" t="inlineStr">
         <is>
           <t>2019-04-26T06:22:54</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>AC06</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>GO03</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -9327,37 +9327,37 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
           <t>2019-06-03T08:42:20</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>2019-06-03T08:42:25</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>2019-06-03T08:42:26</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>2019-06-03T08:42:27</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="R97" t="inlineStr">
         <is>
           <t>2019-06-03T08:42:27</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -9419,37 +9419,37 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
+          <t>MT01</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>BO01</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
           <t>2019-08-02T00:55:21</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>2019-08-02T00:55:23</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>2019-08-02T00:55:23</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>2019-08-02T00:55:25</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr">
+      <c r="R98" t="inlineStr">
         <is>
           <t>2019-08-02T00:55:27</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>MT01</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>BO01</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -9511,37 +9511,37 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
           <t>2019-09-26T20:31:29</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>2019-09-26T20:31:29</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>2019-09-26T20:31:29</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>2019-09-26T20:31:35</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
+      <c r="R99" t="inlineStr">
         <is>
           <t>2019-09-26T20:31:35</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>CO06</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9603,37 +9603,37 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
           <t>2019-12-03T07:29:38</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>2019-12-03T07:29:39</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>2019-12-03T07:29:42</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="Q100" t="inlineStr">
         <is>
           <t>2019-12-03T07:29:42</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
+      <c r="R100" t="inlineStr">
         <is>
           <t>2019-12-03T07:29:44</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>PB07</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -9695,37 +9695,37 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
           <t>2020-01-28T18:16:54</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>2020-01-28T18:16:56</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>2020-01-28T18:16:57</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="Q101" t="inlineStr">
         <is>
           <t>2020-01-28T18:16:57</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
+      <c r="R101" t="inlineStr">
         <is>
           <t>2020-01-28T18:17:01</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -9787,37 +9787,37 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
+          <t>PB19</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
           <t>2020-02-11T13:50:08</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>2020-02-11T13:50:19</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="P102" t="inlineStr">
         <is>
           <t>2020-02-11T13:50:19</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="Q102" t="inlineStr">
         <is>
           <t>2020-02-11T13:50:21</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr">
+      <c r="R102" t="inlineStr">
         <is>
           <t>2020-02-11T13:50:21</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>PB19</t>
-        </is>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>PB05</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9879,37 +9879,37 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
           <t>2020-02-13T05:50:46</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>2020-02-13T05:50:47</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>2020-02-13T05:50:50</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>2020-02-13T05:50:50</t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
+      <c r="R103" t="inlineStr">
         <is>
           <t>2020-02-13T05:50:52</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>PB07</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -9971,37 +9971,37 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
           <t>2020-03-24T06:52:19</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t>2020-03-24T06:52:26</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
+      <c r="P104" t="inlineStr">
         <is>
           <t>2020-03-24T06:52:27</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="Q104" t="inlineStr">
         <is>
           <t>2020-03-24T06:52:27</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
+      <c r="R104" t="inlineStr">
         <is>
           <t>2020-03-24T06:52:29</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>TLL</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -10063,37 +10063,37 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
           <t>2020-09-01T05:29:42</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>2020-09-01T05:29:50</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="P105" t="inlineStr">
         <is>
           <t>2020-09-01T05:29:50</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>2020-09-01T05:29:52</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
+      <c r="R105" t="inlineStr">
         <is>
           <t>2020-09-01T05:29:52</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10155,37 +10155,37 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
           <t>2020-09-01T07:01:31</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>2020-09-01T07:01:39</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t>2020-09-01T07:01:39</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>2020-09-01T07:01:41</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
+      <c r="R106" t="inlineStr">
         <is>
           <t>2020-09-01T07:01:41</t>
-        </is>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>AC05</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -10247,37 +10247,37 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
           <t>2020-09-01T10:31:58</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>2020-09-01T10:32:03</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
+      <c r="P107" t="inlineStr">
         <is>
           <t>2020-09-01T10:32:04</t>
         </is>
       </c>
-      <c r="O107" t="inlineStr">
+      <c r="Q107" t="inlineStr">
         <is>
           <t>2020-09-01T10:32:06</t>
         </is>
       </c>
-      <c r="P107" t="inlineStr">
+      <c r="R107" t="inlineStr">
         <is>
           <t>2020-09-01T10:32:06</t>
-        </is>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>AC05</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -10339,37 +10339,37 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
+          <t>AC06</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>AC02</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
           <t>2020-10-21T09:13:15</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
+      <c r="O108" t="inlineStr">
         <is>
           <t>2020-10-21T09:13:19</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr">
+      <c r="P108" t="inlineStr">
         <is>
           <t>2020-10-21T09:13:23</t>
         </is>
       </c>
-      <c r="O108" t="inlineStr">
+      <c r="Q108" t="inlineStr">
         <is>
           <t>2020-10-21T09:13:28</t>
         </is>
       </c>
-      <c r="P108" t="inlineStr">
+      <c r="R108" t="inlineStr">
         <is>
           <t>2020-10-21T09:13:29</t>
-        </is>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>AC06</t>
-        </is>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>AC02</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
@@ -10431,37 +10431,37 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
           <t>2020-10-25T21:17:25</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
+      <c r="O109" t="inlineStr">
         <is>
           <t>2020-10-25T21:17:26</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
+      <c r="P109" t="inlineStr">
         <is>
           <t>2020-10-25T21:17:26</t>
         </is>
       </c>
-      <c r="O109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
         <is>
           <t>2020-10-25T21:17:28</t>
         </is>
       </c>
-      <c r="P109" t="inlineStr">
+      <c r="R109" t="inlineStr">
         <is>
           <t>2020-10-25T21:17:29</t>
-        </is>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10523,37 +10523,37 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
           <t>2020-10-28T14:53:13</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
+      <c r="O110" t="inlineStr">
         <is>
           <t>2020-10-28T14:53:18</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
+      <c r="P110" t="inlineStr">
         <is>
           <t>2020-10-28T14:53:18</t>
         </is>
       </c>
-      <c r="O110" t="inlineStr">
+      <c r="Q110" t="inlineStr">
         <is>
           <t>2020-10-28T14:53:19</t>
         </is>
       </c>
-      <c r="P110" t="inlineStr">
+      <c r="R110" t="inlineStr">
         <is>
           <t>2020-10-28T14:53:22</t>
-        </is>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>AC05</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10615,37 +10615,37 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
           <t>2020-11-21T02:11:51</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr">
+      <c r="O111" t="inlineStr">
         <is>
           <t>2020-11-21T02:11:54</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr">
+      <c r="P111" t="inlineStr">
         <is>
           <t>2020-11-21T02:11:57</t>
         </is>
       </c>
-      <c r="O111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
         <is>
           <t>2020-11-21T02:12:00</t>
         </is>
       </c>
-      <c r="P111" t="inlineStr">
+      <c r="R111" t="inlineStr">
         <is>
           <t>2020-11-21T02:12:00</t>
-        </is>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>CO05</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">

--- a/BD paper/catalogos/waveform_5_filtered.xlsx
+++ b/BD paper/catalogos/waveform_5_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:T109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4773,19 +4773,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5159118</v>
+        <v>5159119</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>42264.51011574074</v>
+        <v>42264.50674768518</v>
       </c>
       <c r="C48" t="n">
-        <v>-32.9149</v>
+        <v>-32.1351</v>
       </c>
       <c r="D48" t="n">
-        <v>-71.60639999999999</v>
+        <v>-72.21169999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -4794,90 +4794,90 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
           <t>VA01</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>V25A</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>ROC1</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>MT07</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>VA06</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>VA05</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:35</t>
+          <t>2015-09-17T12:09:55</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:37</t>
+          <t>2015-09-17T12:09:56</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:40</t>
+          <t>2015-09-17T12:09:57</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:40</t>
+          <t>2015-09-17T12:09:58</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:40</t>
+          <t>2015-09-17T12:10:01</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:41</t>
+          <t>2015-09-17T12:10:01</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:44</t>
+          <t>2015-09-17T12:10:02</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5159119</v>
+        <v>5159127</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>42264.50674768518</v>
+        <v>42264.56418981482</v>
       </c>
       <c r="C49" t="n">
-        <v>-32.1351</v>
+        <v>-32.1432</v>
       </c>
       <c r="D49" t="n">
-        <v>-72.21169999999999</v>
+        <v>-72.3779</v>
       </c>
       <c r="E49" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -4921,55 +4921,55 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2015-09-17T12:09:55</t>
+          <t>2015-09-17T13:32:39</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2015-09-17T12:09:56</t>
+          <t>2015-09-17T13:32:40</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2015-09-17T12:09:57</t>
+          <t>2015-09-17T13:32:42</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2015-09-17T12:09:58</t>
+          <t>2015-09-17T13:32:42</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>2015-09-17T12:10:01</t>
+          <t>2015-09-17T13:32:45</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2015-09-17T12:10:01</t>
+          <t>2015-09-17T13:32:45</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>2015-09-17T12:10:02</t>
+          <t>2015-09-17T13:32:46</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5159127</v>
+        <v>5159135</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>42264.56418981482</v>
+        <v>42264.67262731482</v>
       </c>
       <c r="C50" t="n">
-        <v>-32.1432</v>
+        <v>-30.8916</v>
       </c>
       <c r="D50" t="n">
-        <v>-72.3779</v>
+        <v>-71.402</v>
       </c>
       <c r="E50" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -4978,90 +4978,90 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2015-09-17T13:32:39</t>
+          <t>2015-09-17T16:08:39</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2015-09-17T13:32:40</t>
+          <t>2015-09-17T16:08:41</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2015-09-17T13:32:42</t>
+          <t>2015-09-17T16:08:43</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2015-09-17T13:32:42</t>
+          <t>2015-09-17T16:08:47</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>2015-09-17T13:32:45</t>
+          <t>2015-09-17T16:08:47</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2015-09-17T13:32:45</t>
+          <t>2015-09-17T16:08:47</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>2015-09-17T13:32:46</t>
+          <t>2015-09-17T16:08:47</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5159135</v>
+        <v>5159160</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>42264.67262731482</v>
+        <v>42264.85040509259</v>
       </c>
       <c r="C51" t="n">
-        <v>-30.8916</v>
+        <v>-32.3271</v>
       </c>
       <c r="D51" t="n">
-        <v>-71.402</v>
+        <v>-71.9254</v>
       </c>
       <c r="E51" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -5070,90 +5070,90 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>CO04</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>MT07</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>MT02</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2015-09-17T16:08:39</t>
+          <t>2015-09-17T20:24:42</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2015-09-17T16:08:41</t>
+          <t>2015-09-17T20:24:45</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2015-09-17T16:08:43</t>
+          <t>2015-09-17T20:24:46</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2015-09-17T16:08:47</t>
+          <t>2015-09-17T20:24:47</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>2015-09-17T16:08:47</t>
+          <t>2015-09-17T20:24:48</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>2015-09-17T16:08:47</t>
+          <t>2015-09-17T20:24:48</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>2015-09-17T16:08:47</t>
+          <t>2015-09-17T20:24:50</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5159160</v>
+        <v>5159177</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>42264.85040509259</v>
+        <v>42264.94398148148</v>
       </c>
       <c r="C52" t="n">
-        <v>-32.3271</v>
+        <v>-31.031</v>
       </c>
       <c r="D52" t="n">
-        <v>-71.9254</v>
+        <v>-71.8056</v>
       </c>
       <c r="E52" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -5162,90 +5162,90 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>MT02</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2015-09-17T20:24:42</t>
+          <t>2015-09-17T22:39:25</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2015-09-17T20:24:45</t>
+          <t>2015-09-17T22:39:29</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2015-09-17T20:24:46</t>
+          <t>2015-09-17T22:39:33</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2015-09-17T20:24:47</t>
+          <t>2015-09-17T22:39:35</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>2015-09-17T20:24:48</t>
+          <t>2015-09-17T22:39:36</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>2015-09-17T20:24:48</t>
+          <t>2015-09-17T22:39:36</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>2015-09-17T20:24:50</t>
+          <t>2015-09-17T22:39:36</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5159177</v>
+        <v>5159326</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>42264.94398148148</v>
+        <v>42266.37996527777</v>
       </c>
       <c r="C53" t="n">
-        <v>-31.031</v>
+        <v>-31.0999</v>
       </c>
       <c r="D53" t="n">
-        <v>-71.8056</v>
+        <v>-71.5902</v>
       </c>
       <c r="E53" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5269,75 +5269,75 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
           <t>IN41</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2015-09-17T22:39:25</t>
+          <t>2015-09-19T09:07:14</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2015-09-17T22:39:29</t>
+          <t>2015-09-19T09:07:16</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2015-09-17T22:39:33</t>
+          <t>2015-09-19T09:07:20</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2015-09-17T22:39:35</t>
+          <t>2015-09-19T09:07:23</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>2015-09-17T22:39:36</t>
+          <t>2015-09-19T09:07:24</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>2015-09-17T22:39:36</t>
+          <t>2015-09-19T09:07:24</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>2015-09-17T22:39:36</t>
+          <t>2015-09-19T09:07:24</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5159326</v>
+        <v>5159346</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>42266.37996527777</v>
+        <v>42266.54788194445</v>
       </c>
       <c r="C54" t="n">
-        <v>-31.0999</v>
+        <v>-30.5256</v>
       </c>
       <c r="D54" t="n">
-        <v>-71.5902</v>
+        <v>-72.19840000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -5351,278 +5351,278 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>CO02</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>CO03</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>CO04</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>GO04</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>TLL</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:14</t>
+          <t>2015-09-19T13:09:04</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:16</t>
+          <t>2015-09-19T13:09:09</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:20</t>
+          <t>2015-09-19T13:09:10</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:23</t>
+          <t>2015-09-19T13:09:11</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:24</t>
+          <t>2015-09-19T13:09:13</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:24</t>
+          <t>2015-09-19T13:09:14</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:24</t>
+          <t>2015-09-19T13:09:14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5159346</v>
+        <v>5160254</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>42266.54788194445</v>
+        <v>42274.87829861111</v>
       </c>
       <c r="C55" t="n">
-        <v>-30.5256</v>
+        <v>-31.669</v>
       </c>
       <c r="D55" t="n">
-        <v>-72.19840000000001</v>
+        <v>-71.70099999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>CO06</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:04</t>
+          <t>2015-09-27T21:04:54</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:09</t>
+          <t>2015-09-27T21:04:55</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:10</t>
+          <t>2015-09-27T21:04:58</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:11</t>
+          <t>2015-09-27T21:04:58</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:13</t>
+          <t>2015-09-27T21:05:01</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:14</t>
+          <t>2015-09-27T21:05:03</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:14</t>
+          <t>2015-09-27T21:05:04</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5160254</v>
+        <v>5160474</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>42274.87829861111</v>
+        <v>42263.96465277778</v>
       </c>
       <c r="C56" t="n">
-        <v>-31.669</v>
+        <v>-31.1055</v>
       </c>
       <c r="D56" t="n">
-        <v>-71.70099999999999</v>
+        <v>-71.405</v>
       </c>
       <c r="E56" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>CO02</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>CO04</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>CO02</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>VA06</t>
-        </is>
-      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2015-09-27T21:04:54</t>
+          <t>2015-09-16T23:09:10</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2015-09-27T21:04:55</t>
+          <t>2015-09-16T23:09:12</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2015-09-27T21:04:58</t>
+          <t>2015-09-16T23:09:15</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2015-09-27T21:04:58</t>
+          <t>2015-09-16T23:09:19</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>2015-09-27T21:05:01</t>
+          <t>2015-09-16T23:09:20</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>2015-09-27T21:05:03</t>
+          <t>2015-09-16T23:09:20</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>2015-09-27T21:05:04</t>
+          <t>2015-09-16T23:09:21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5160474</v>
+        <v>5160855</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>42263.96465277778</v>
+        <v>42280.26869212963</v>
       </c>
       <c r="C57" t="n">
-        <v>-31.1055</v>
+        <v>-30.301</v>
       </c>
       <c r="D57" t="n">
-        <v>-71.405</v>
+        <v>-71.551</v>
       </c>
       <c r="E57" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -5632,80 +5632,80 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
           <t>CO03</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>CO04</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2015-09-16T23:09:10</t>
+          <t>2015-10-03T06:26:59</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2015-09-16T23:09:12</t>
+          <t>2015-10-03T06:27:00</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2015-09-16T23:09:15</t>
+          <t>2015-10-03T06:27:00</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2015-09-16T23:09:19</t>
+          <t>2015-10-03T06:27:01</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>2015-09-16T23:09:20</t>
+          <t>2015-10-03T06:27:04</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>2015-09-16T23:09:20</t>
+          <t>2015-10-03T06:27:04</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>2015-09-16T23:09:21</t>
+          <t>2015-10-03T06:27:07</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5160855</v>
+        <v>5160937</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>42280.26869212963</v>
+        <v>42281.15959490741</v>
       </c>
       <c r="C58" t="n">
-        <v>-30.301</v>
+        <v>-30.3105</v>
       </c>
       <c r="D58" t="n">
-        <v>-71.551</v>
+        <v>-72.1018</v>
       </c>
       <c r="E58" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -5714,24 +5714,24 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
           <t>IN41</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
       <c r="I58" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
           <t>IN40</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>GO04</t>
@@ -5744,60 +5744,60 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2015-10-03T06:26:59</t>
+          <t>2015-10-04T03:49:56</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2015-10-03T06:27:00</t>
+          <t>2015-10-04T03:49:59</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2015-10-03T06:27:00</t>
+          <t>2015-10-04T03:50:00</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2015-10-03T06:27:01</t>
+          <t>2015-10-04T03:50:00</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>2015-10-03T06:27:04</t>
+          <t>2015-10-04T03:50:04</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>2015-10-03T06:27:04</t>
+          <t>2015-10-04T03:50:04</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>2015-10-03T06:27:07</t>
+          <t>2015-10-04T03:50:05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5160937</v>
+        <v>5160970</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>42281.15959490741</v>
+        <v>42281.4249537037</v>
       </c>
       <c r="C59" t="n">
-        <v>-30.3105</v>
+        <v>-30.656</v>
       </c>
       <c r="D59" t="n">
-        <v>-72.1018</v>
+        <v>-71.627</v>
       </c>
       <c r="E59" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -5836,84 +5836,84 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2015-10-04T03:49:56</t>
+          <t>2015-10-04T10:11:56</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2015-10-04T03:49:59</t>
+          <t>2015-10-04T10:12:05</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2015-10-04T03:50:00</t>
+          <t>2015-10-04T10:12:06</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2015-10-04T03:50:00</t>
+          <t>2015-10-04T10:12:06</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2015-10-04T03:50:04</t>
+          <t>2015-10-04T10:12:07</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>2015-10-04T03:50:04</t>
+          <t>2015-10-04T10:12:07</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>2015-10-04T03:50:05</t>
+          <t>2015-10-04T10:12:07</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5160970</v>
+        <v>5161102</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>42281.4249537037</v>
+        <v>42282.68988425926</v>
       </c>
       <c r="C60" t="n">
-        <v>-30.656</v>
+        <v>-30.3035</v>
       </c>
       <c r="D60" t="n">
-        <v>-71.627</v>
+        <v>-71.5318</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
           <t>CO06</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5933,55 +5933,55 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2015-10-04T10:11:56</t>
+          <t>2015-10-05T16:33:30</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2015-10-04T10:12:05</t>
+          <t>2015-10-05T16:33:31</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2015-10-04T10:12:06</t>
+          <t>2015-10-05T16:33:31</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2015-10-04T10:12:06</t>
+          <t>2015-10-05T16:33:32</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2015-10-04T10:12:07</t>
+          <t>2015-10-05T16:33:34</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>2015-10-04T10:12:07</t>
+          <t>2015-10-05T16:33:34</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>2015-10-04T10:12:07</t>
+          <t>2015-10-05T16:33:38</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5161102</v>
+        <v>5161716</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>42282.68988425926</v>
+        <v>42289.13563657407</v>
       </c>
       <c r="C61" t="n">
-        <v>-30.3035</v>
+        <v>-31.1849</v>
       </c>
       <c r="D61" t="n">
-        <v>-71.5318</v>
+        <v>-71.8227</v>
       </c>
       <c r="E61" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -5990,90 +5990,90 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
           <t>IN41</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>GO04</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>TLL</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>CO03</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2015-10-05T16:33:30</t>
+          <t>2015-10-12T03:15:26</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2015-10-05T16:33:31</t>
+          <t>2015-10-12T03:15:28</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2015-10-05T16:33:31</t>
+          <t>2015-10-12T03:15:33</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2015-10-05T16:33:32</t>
+          <t>2015-10-12T03:15:34</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>2015-10-05T16:33:34</t>
+          <t>2015-10-12T03:15:36</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>2015-10-05T16:33:34</t>
+          <t>2015-10-12T03:15:37</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>2015-10-05T16:33:38</t>
+          <t>2015-10-12T03:15:37</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5161716</v>
+        <v>5163250</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>42289.13563657407</v>
+        <v>42264.13381944445</v>
       </c>
       <c r="C62" t="n">
-        <v>-31.1849</v>
+        <v>-30.922</v>
       </c>
       <c r="D62" t="n">
-        <v>-71.8227</v>
+        <v>-71.264</v>
       </c>
       <c r="E62" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -6082,14 +6082,14 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
           <t>CO06</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>CO02</t>
-        </is>
-      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>CO03</t>
@@ -6097,75 +6097,75 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
           <t>IN41</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2015-10-12T03:15:26</t>
+          <t>2015-09-17T03:12:46</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2015-10-12T03:15:28</t>
+          <t>2015-09-17T03:12:47</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2015-10-12T03:15:33</t>
+          <t>2015-09-17T03:12:48</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2015-10-12T03:15:34</t>
+          <t>2015-09-17T03:12:53</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2015-10-12T03:15:36</t>
+          <t>2015-09-17T03:12:53</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>2015-10-12T03:15:37</t>
+          <t>2015-09-17T03:12:54</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>2015-10-12T03:15:37</t>
+          <t>2015-09-17T03:12:55</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5163250</v>
+        <v>5164358</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>42264.13381944445</v>
+        <v>42314.3639699074</v>
       </c>
       <c r="C63" t="n">
-        <v>-30.922</v>
+        <v>-30.1424</v>
       </c>
       <c r="D63" t="n">
-        <v>-71.264</v>
+        <v>-72.2616</v>
       </c>
       <c r="E63" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -6174,90 +6174,90 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
           <t>GO04</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>TLL</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2015-09-17T03:12:46</t>
+          <t>2015-11-06T08:44:17</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2015-09-17T03:12:47</t>
+          <t>2015-11-06T08:44:18</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2015-09-17T03:12:48</t>
+          <t>2015-11-06T08:44:19</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2015-09-17T03:12:53</t>
+          <t>2015-11-06T08:44:19</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2015-09-17T03:12:53</t>
+          <t>2015-11-06T08:44:22</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>2015-09-17T03:12:54</t>
+          <t>2015-11-06T08:44:24</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>2015-09-17T03:12:55</t>
+          <t>2015-11-06T08:44:24</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5164358</v>
+        <v>5164455</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>42314.3639699074</v>
+        <v>42315.45398148148</v>
       </c>
       <c r="C64" t="n">
-        <v>-30.1424</v>
+        <v>-30.7227</v>
       </c>
       <c r="D64" t="n">
-        <v>-72.2616</v>
+        <v>-71.3904</v>
       </c>
       <c r="E64" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -6271,85 +6271,85 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
           <t>IN41</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>IN40</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2015-11-06T08:44:17</t>
+          <t>2015-11-07T10:53:46</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2015-11-06T08:44:18</t>
+          <t>2015-11-07T10:53:52</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2015-11-06T08:44:19</t>
+          <t>2015-11-07T10:53:52</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2015-11-06T08:44:19</t>
+          <t>2015-11-07T10:53:53</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>2015-11-06T08:44:22</t>
+          <t>2015-11-07T10:53:54</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>2015-11-06T08:44:24</t>
+          <t>2015-11-07T10:53:54</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>2015-11-06T08:44:24</t>
+          <t>2015-11-07T10:53:54</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5164455</v>
+        <v>5167526</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>42315.45398148148</v>
+        <v>42346.53896990741</v>
       </c>
       <c r="C65" t="n">
-        <v>-30.7227</v>
+        <v>-30.8096</v>
       </c>
       <c r="D65" t="n">
-        <v>-71.3904</v>
+        <v>-71.75190000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6378,74 +6378,74 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
           <t>GO04</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2015-11-07T10:53:46</t>
+          <t>2015-12-08T12:56:09</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2015-11-07T10:53:52</t>
+          <t>2015-12-08T12:56:17</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2015-11-07T10:53:52</t>
+          <t>2015-12-08T12:56:19</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2015-11-07T10:53:53</t>
+          <t>2015-12-08T12:56:19</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>2015-11-07T10:53:54</t>
+          <t>2015-12-08T12:56:20</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>2015-11-07T10:53:54</t>
+          <t>2015-12-08T12:56:20</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>2015-11-07T10:53:54</t>
+          <t>2015-12-08T12:56:21</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5167526</v>
+        <v>5175068</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>42346.53896990741</v>
+        <v>42422.27572916666</v>
       </c>
       <c r="C66" t="n">
-        <v>-30.8096</v>
+        <v>-30.4623</v>
       </c>
       <c r="D66" t="n">
-        <v>-71.75190000000001</v>
+        <v>-72.063</v>
       </c>
       <c r="E66" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -6455,361 +6455,361 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
           <t>CO02</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>CO03</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2015-12-08T12:56:09</t>
+          <t>2016-02-22T06:37:08</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2015-12-08T12:56:17</t>
+          <t>2016-02-22T06:37:13</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2015-12-08T12:56:19</t>
+          <t>2016-02-22T06:37:14</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2015-12-08T12:56:19</t>
+          <t>2016-02-22T06:37:15</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>2015-12-08T12:56:20</t>
+          <t>2016-02-22T06:37:18</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>2015-12-08T12:56:20</t>
+          <t>2016-02-22T06:37:18</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>2015-12-08T12:56:21</t>
+          <t>2016-02-22T06:37:19</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5175068</v>
+        <v>5180106</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>42422.27572916666</v>
+        <v>42476.25372685185</v>
       </c>
       <c r="C67" t="n">
-        <v>-30.4623</v>
+        <v>-26.4613</v>
       </c>
       <c r="D67" t="n">
-        <v>-72.063</v>
+        <v>-69.8601</v>
       </c>
       <c r="E67" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>AC01</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>AC02</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO02</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2016-02-22T06:37:08</t>
+          <t>2016-04-16T06:05:32</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2016-02-22T06:37:13</t>
+          <t>2016-04-16T06:05:32</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2016-02-22T06:37:14</t>
+          <t>2016-04-16T06:05:35</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2016-02-22T06:37:15</t>
+          <t>2016-04-16T06:05:37</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>2016-02-22T06:37:18</t>
+          <t>2016-04-16T06:05:37</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>2016-02-22T06:37:18</t>
+          <t>2016-04-16T06:05:38</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>2016-02-22T06:37:19</t>
+          <t>2016-04-16T06:05:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5180106</v>
+        <v>5184588</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>42476.25372685185</v>
+        <v>42526.24387731482</v>
       </c>
       <c r="C68" t="n">
-        <v>-26.4613</v>
+        <v>-29.3424</v>
       </c>
       <c r="D68" t="n">
-        <v>-69.8601</v>
+        <v>-71.85939999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO01</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>AC01</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>AC02</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>GO02</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2016-04-16T06:05:32</t>
+          <t>2016-06-05T05:51:15</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2016-04-16T06:05:32</t>
+          <t>2016-06-05T05:51:21</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2016-04-16T06:05:35</t>
+          <t>2016-06-05T05:51:22</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2016-04-16T06:05:37</t>
+          <t>2016-06-05T05:51:22</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>2016-04-16T06:05:37</t>
+          <t>2016-06-05T05:51:28</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>2016-04-16T06:05:38</t>
+          <t>2016-06-05T05:51:28</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>2016-04-16T06:05:40</t>
+          <t>2016-06-05T05:51:29</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5184588</v>
+        <v>5184671</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>42526.24387731482</v>
+        <v>42527.55280092593</v>
       </c>
       <c r="C69" t="n">
-        <v>-29.3424</v>
+        <v>-30.0433</v>
       </c>
       <c r="D69" t="n">
-        <v>-71.85939999999999</v>
+        <v>-71.4636</v>
       </c>
       <c r="E69" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
           <t>CO10</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>AC04</t>
-        </is>
-      </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2016-06-05T05:51:15</t>
+          <t>2016-06-06T13:16:03</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2016-06-05T05:51:21</t>
+          <t>2016-06-06T13:16:04</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2016-06-05T05:51:22</t>
+          <t>2016-06-06T13:16:05</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2016-06-05T05:51:22</t>
+          <t>2016-06-06T13:16:10</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>2016-06-05T05:51:28</t>
+          <t>2016-06-06T13:16:10</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>2016-06-05T05:51:28</t>
+          <t>2016-06-06T13:16:10</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>2016-06-05T05:51:29</t>
+          <t>2016-06-06T13:16:13</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5184671</v>
+        <v>5184673</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>42527.55280092593</v>
+        <v>42527.55693287037</v>
       </c>
       <c r="C70" t="n">
-        <v>-30.0433</v>
+        <v>-30.069</v>
       </c>
       <c r="D70" t="n">
-        <v>-71.4636</v>
+        <v>-71.52379999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -6823,14 +6823,14 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>IN40</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
       <c r="J70" t="inlineStr">
         <is>
           <t>GO04</t>
@@ -6853,55 +6853,55 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2016-06-06T13:16:03</t>
+          <t>2016-06-06T13:22:01</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2016-06-06T13:16:04</t>
+          <t>2016-06-06T13:22:02</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2016-06-06T13:16:05</t>
+          <t>2016-06-06T13:22:02</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2016-06-06T13:16:10</t>
+          <t>2016-06-06T13:22:07</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>2016-06-06T13:16:10</t>
+          <t>2016-06-06T13:22:07</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>2016-06-06T13:16:10</t>
+          <t>2016-06-06T13:22:07</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>2016-06-06T13:16:13</t>
+          <t>2016-06-06T13:22:10</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5184673</v>
+        <v>5188199</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>42527.55693287037</v>
+        <v>42569.12418981481</v>
       </c>
       <c r="C71" t="n">
-        <v>-30.069</v>
+        <v>-30.7537</v>
       </c>
       <c r="D71" t="n">
-        <v>-71.52379999999999</v>
+        <v>-71.79349999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -6910,90 +6910,90 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>IN41</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>CO05</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>GO04</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2016-06-06T13:22:01</t>
+          <t>2016-07-18T02:58:52</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2016-06-06T13:22:02</t>
+          <t>2016-07-18T02:59:01</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2016-06-06T13:22:02</t>
+          <t>2016-07-18T02:59:01</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2016-06-06T13:22:07</t>
+          <t>2016-07-18T02:59:02</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>2016-06-06T13:22:07</t>
+          <t>2016-07-18T02:59:03</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>2016-06-06T13:22:07</t>
+          <t>2016-07-18T02:59:03</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>2016-06-06T13:22:10</t>
+          <t>2016-07-18T02:59:04</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5188199</v>
+        <v>5188291</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>42569.12418981481</v>
+        <v>42570.22129629629</v>
       </c>
       <c r="C72" t="n">
-        <v>-30.7537</v>
+        <v>-30.2523</v>
       </c>
       <c r="D72" t="n">
-        <v>-71.79349999999999</v>
+        <v>-71.9722</v>
       </c>
       <c r="E72" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -7007,12 +7007,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7022,70 +7022,70 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2016-07-18T02:58:52</t>
+          <t>2016-07-19T05:18:47</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2016-07-18T02:59:01</t>
+          <t>2016-07-19T05:18:48</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2016-07-18T02:59:01</t>
+          <t>2016-07-19T05:18:49</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2016-07-18T02:59:02</t>
+          <t>2016-07-19T05:18:49</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>2016-07-18T02:59:03</t>
+          <t>2016-07-19T05:18:53</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>2016-07-18T02:59:03</t>
+          <t>2016-07-19T05:18:54</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>2016-07-18T02:59:04</t>
+          <t>2016-07-19T05:18:55</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5188291</v>
+        <v>5196427</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>42570.22129629629</v>
+        <v>42670.85619212963</v>
       </c>
       <c r="C73" t="n">
-        <v>-30.2523</v>
+        <v>-33.7647</v>
       </c>
       <c r="D73" t="n">
-        <v>-71.9722</v>
+        <v>-72.5338</v>
       </c>
       <c r="E73" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -7094,182 +7094,182 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>VA05</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>RPCO</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>RPRC</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>BO03</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>MT01</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2016-07-19T05:18:47</t>
+          <t>2016-10-27T20:33:05</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2016-07-19T05:18:48</t>
+          <t>2016-10-27T20:33:06</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2016-07-19T05:18:49</t>
+          <t>2016-10-27T20:33:06</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2016-07-19T05:18:49</t>
+          <t>2016-10-27T20:33:07</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>2016-07-19T05:18:53</t>
+          <t>2016-10-27T20:33:07</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>2016-07-19T05:18:54</t>
+          <t>2016-10-27T20:33:09</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>2016-07-19T05:18:55</t>
+          <t>2016-10-27T20:33:09</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5196427</v>
+        <v>8500485</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>42670.85619212963</v>
+        <v>42266.54788194445</v>
       </c>
       <c r="C74" t="n">
-        <v>-33.7647</v>
+        <v>-30.53</v>
       </c>
       <c r="D74" t="n">
-        <v>-72.5338</v>
+        <v>-72.2</v>
       </c>
       <c r="E74" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>GO03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
           <t>CO02</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>VA05</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>RPCO</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>RPRC</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>BO03</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>MT01</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2016-10-27T20:33:05</t>
+          <t>2015-09-19T13:09:04</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2016-10-27T20:33:06</t>
+          <t>2015-09-19T13:09:09</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2016-10-27T20:33:06</t>
+          <t>2015-09-19T13:09:10</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2016-10-27T20:33:07</t>
+          <t>2015-09-19T13:09:11</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>2016-10-27T20:33:07</t>
+          <t>2015-09-19T13:09:13</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>2016-10-27T20:33:09</t>
+          <t>2015-09-19T13:09:14</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>2016-10-27T20:33:09</t>
+          <t>2015-09-19T13:09:14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8498953</v>
+        <v>8500540</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>42264.51012731482</v>
+        <v>42266.37996527777</v>
       </c>
       <c r="C75" t="n">
-        <v>-32.91</v>
+        <v>-31.1</v>
       </c>
       <c r="D75" t="n">
-        <v>-71.59999999999999</v>
+        <v>-71.59</v>
       </c>
       <c r="E75" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -7278,186 +7278,186 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>CO04</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>MT02</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>VA05</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:36</t>
+          <t>2015-09-19T09:07:14</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:39</t>
+          <t>2015-09-19T09:07:16</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:40</t>
+          <t>2015-09-19T09:07:20</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:41</t>
+          <t>2015-09-19T09:07:23</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:41</t>
+          <t>2015-09-19T09:07:24</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:42</t>
+          <t>2015-09-19T09:07:24</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>2015-09-17T12:14:45</t>
+          <t>2015-09-19T09:07:24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8500485</v>
+        <v>9997741</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>42266.54788194445</v>
+        <v>42769.03641203704</v>
       </c>
       <c r="C76" t="n">
-        <v>-30.53</v>
+        <v>-33.1005</v>
       </c>
       <c r="D76" t="n">
-        <v>-72.2</v>
+        <v>-69.7345</v>
       </c>
       <c r="E76" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>MT04</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>MT08</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>FAR1</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>MT17</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>MT10</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>CLCH</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>DG13</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:04</t>
+          <t>2017-02-03T00:52:32</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:09</t>
+          <t>2017-02-03T00:52:32</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:10</t>
+          <t>2017-02-03T00:52:33</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:11</t>
+          <t>2017-02-03T00:52:34</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:13</t>
+          <t>2017-02-03T00:52:35</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:14</t>
+          <t>2017-02-03T00:52:36</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>2015-09-19T13:09:14</t>
+          <t>2017-02-03T00:52:36</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8500540</v>
+        <v>10045902</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>42266.37996527777</v>
+        <v>42825.78099537037</v>
       </c>
       <c r="C77" t="n">
-        <v>-31.1</v>
+        <v>-30.7523</v>
       </c>
       <c r="D77" t="n">
-        <v>-71.59</v>
+        <v>-71.55419999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -7477,75 +7477,75 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
           <t>GO04</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:14</t>
+          <t>2017-03-31T18:44:39</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:16</t>
+          <t>2017-03-31T18:44:47</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:20</t>
+          <t>2017-03-31T18:44:48</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:23</t>
+          <t>2017-03-31T18:44:48</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:24</t>
+          <t>2017-03-31T18:44:49</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:24</t>
+          <t>2017-03-31T18:44:49</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>2015-09-19T09:07:24</t>
+          <t>2017-03-31T18:44:50</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9997741</v>
+        <v>10117557</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>42769.03641203704</v>
+        <v>42853.64590277777</v>
       </c>
       <c r="C78" t="n">
-        <v>-33.1005</v>
+        <v>-33.2318</v>
       </c>
       <c r="D78" t="n">
-        <v>-69.7345</v>
+        <v>-71.9751</v>
       </c>
       <c r="E78" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -7554,90 +7554,90 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>MT04</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>MT08</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>FAR1</t>
+          <t>VA05</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>MT17</t>
+          <t>MT02</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>MT10</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>CLCH</t>
+          <t>MT07</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>DG13</t>
+          <t>RPCO</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2017-02-03T00:52:32</t>
+          <t>2017-04-28T15:30:09</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2017-02-03T00:52:32</t>
+          <t>2017-04-28T15:30:10</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2017-02-03T00:52:33</t>
+          <t>2017-04-28T15:30:13</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>2017-02-03T00:52:34</t>
+          <t>2017-04-28T15:30:15</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>2017-02-03T00:52:35</t>
+          <t>2017-04-28T15:30:17</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>2017-02-03T00:52:36</t>
+          <t>2017-04-28T15:30:17</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>2017-02-03T00:52:36</t>
+          <t>2017-04-28T15:30:17</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10045902</v>
+        <v>10117563</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>42825.78099537037</v>
+        <v>42853.66567129629</v>
       </c>
       <c r="C79" t="n">
-        <v>-30.7523</v>
+        <v>-33.2348</v>
       </c>
       <c r="D79" t="n">
-        <v>-71.55419999999999</v>
+        <v>-72.03279999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -7646,90 +7646,90 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>VA05</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>MT02</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>MT01</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>MT07</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2017-03-31T18:44:39</t>
+          <t>2017-04-28T15:58:37</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2017-03-31T18:44:47</t>
+          <t>2017-04-28T15:58:39</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2017-03-31T18:44:48</t>
+          <t>2017-04-28T15:58:41</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2017-03-31T18:44:48</t>
+          <t>2017-04-28T15:58:44</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>2017-03-31T18:44:49</t>
+          <t>2017-04-28T15:58:46</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>2017-03-31T18:44:49</t>
+          <t>2017-04-28T15:58:46</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>2017-03-31T18:44:50</t>
+          <t>2017-04-28T15:58:46</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10117557</v>
+        <v>10117565</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>42853.64590277777</v>
+        <v>42853.67079861111</v>
       </c>
       <c r="C80" t="n">
-        <v>-33.2318</v>
+        <v>-33.1309</v>
       </c>
       <c r="D80" t="n">
-        <v>-71.9751</v>
+        <v>-71.7869</v>
       </c>
       <c r="E80" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -7748,14 +7748,14 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
           <t>VA05</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>ROC1</t>
@@ -7768,60 +7768,60 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>RPCO</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2017-04-28T15:30:09</t>
+          <t>2017-04-28T16:05:58</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2017-04-28T15:30:10</t>
+          <t>2017-04-28T16:05:59</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2017-04-28T15:30:13</t>
+          <t>2017-04-28T16:06:04</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2017-04-28T15:30:15</t>
+          <t>2017-04-28T16:06:04</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2017-04-28T15:30:17</t>
+          <t>2017-04-28T16:06:06</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>2017-04-28T15:30:17</t>
+          <t>2017-04-28T16:06:06</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>2017-04-28T15:30:17</t>
+          <t>2017-04-28T16:06:06</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10117563</v>
+        <v>10202621</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>42853.66567129629</v>
+        <v>42898.11349537037</v>
       </c>
       <c r="C81" t="n">
-        <v>-33.2348</v>
+        <v>-31.5027</v>
       </c>
       <c r="D81" t="n">
-        <v>-72.03279999999999</v>
+        <v>-71.74760000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -7830,182 +7830,182 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
           <t>VA01</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>VA05</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ROC1</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>MT01</t>
-        </is>
-      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2017-04-28T15:58:37</t>
+          <t>2017-06-12T02:43:35</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2017-04-28T15:58:39</t>
+          <t>2017-06-12T02:43:37</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2017-04-28T15:58:41</t>
+          <t>2017-06-12T02:43:37</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2017-04-28T15:58:44</t>
+          <t>2017-06-12T02:43:41</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>2017-04-28T15:58:46</t>
+          <t>2017-06-12T02:43:41</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>2017-04-28T15:58:46</t>
+          <t>2017-06-12T02:43:46</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>2017-04-28T15:58:46</t>
+          <t>2017-06-12T02:43:47</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10117565</v>
+        <v>10289023</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>42853.67079861111</v>
+        <v>41794.71141203704</v>
       </c>
       <c r="C82" t="n">
-        <v>-33.1309</v>
+        <v>-20.6644</v>
       </c>
       <c r="D82" t="n">
-        <v>-71.7869</v>
+        <v>-70.8032</v>
       </c>
       <c r="E82" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>MT02</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>VA05</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2017-04-28T16:05:58</t>
+          <t>2014-06-04T17:04:34</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2017-04-28T16:05:59</t>
+          <t>2014-06-04T17:04:34</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2017-04-28T16:06:04</t>
+          <t>2014-06-04T17:04:36</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2017-04-28T16:06:04</t>
+          <t>2014-06-04T17:04:38</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>2017-04-28T16:06:06</t>
+          <t>2014-06-04T17:04:40</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>2017-04-28T16:06:06</t>
+          <t>2014-06-04T17:04:41</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>2017-04-28T16:06:06</t>
+          <t>2014-06-04T17:04:43</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10202621</v>
+        <v>10391721</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>42898.11349537037</v>
+        <v>42959.53765046296</v>
       </c>
       <c r="C83" t="n">
-        <v>-31.5027</v>
+        <v>-30.2422</v>
       </c>
       <c r="D83" t="n">
-        <v>-71.74760000000001</v>
+        <v>-72.16160000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -8014,87 +8014,87 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2017-06-12T02:43:35</t>
+          <t>2017-08-12T12:54:21</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2017-06-12T02:43:37</t>
+          <t>2017-08-12T12:54:23</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2017-06-12T02:43:37</t>
+          <t>2017-08-12T12:54:24</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2017-06-12T02:43:41</t>
+          <t>2017-08-12T12:54:24</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>2017-06-12T02:43:41</t>
+          <t>2017-08-12T12:54:29</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>2017-06-12T02:43:46</t>
+          <t>2017-08-12T12:54:29</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>2017-06-12T02:43:47</t>
+          <t>2017-08-12T12:54:29</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10289023</v>
+        <v>10400540</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>41794.71141203704</v>
+        <v>42982.91341435185</v>
       </c>
       <c r="C84" t="n">
-        <v>-20.6644</v>
+        <v>-19.2624</v>
       </c>
       <c r="D84" t="n">
-        <v>-70.8032</v>
+        <v>-70.0039</v>
       </c>
       <c r="E84" t="n">
         <v>5.1</v>
@@ -8106,90 +8106,90 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>PB12</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>PB01</t>
+          <t>AP02</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2014-06-04T17:04:34</t>
+          <t>2017-09-04T21:55:23</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2014-06-04T17:04:34</t>
+          <t>2017-09-04T21:55:23</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2014-06-04T17:04:36</t>
+          <t>2017-09-04T21:55:24</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2014-06-04T17:04:38</t>
+          <t>2017-09-04T21:55:27</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>2014-06-04T17:04:40</t>
+          <t>2017-09-04T21:55:28</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>2014-06-04T17:04:41</t>
+          <t>2017-09-04T21:55:30</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>2014-06-04T17:04:43</t>
+          <t>2017-09-04T21:55:31</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10391721</v>
+        <v>10405878</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>42959.53765046296</v>
+        <v>42996.57427083333</v>
       </c>
       <c r="C85" t="n">
-        <v>-30.2422</v>
+        <v>-31.8159</v>
       </c>
       <c r="D85" t="n">
-        <v>-72.16160000000001</v>
+        <v>-72.0977</v>
       </c>
       <c r="E85" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -8198,274 +8198,274 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>CO02</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
           <t>CO06</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2017-08-12T12:54:21</t>
+          <t>2017-09-18T13:47:10</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2017-08-12T12:54:23</t>
+          <t>2017-09-18T13:47:10</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2017-08-12T12:54:24</t>
+          <t>2017-09-18T13:47:12</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2017-08-12T12:54:24</t>
+          <t>2017-09-18T13:47:13</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>2017-08-12T12:54:29</t>
+          <t>2017-09-18T13:47:14</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>2017-08-12T12:54:29</t>
+          <t>2017-09-18T13:47:16</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>2017-08-12T12:54:29</t>
+          <t>2017-09-18T13:47:17</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10400540</v>
+        <v>10598859</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>42982.91341435185</v>
+        <v>43097.16309027778</v>
       </c>
       <c r="C86" t="n">
-        <v>-19.2624</v>
+        <v>-24.8866</v>
       </c>
       <c r="D86" t="n">
-        <v>-70.0039</v>
+        <v>-70.2184</v>
       </c>
       <c r="E86" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>GO02</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>AC01</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>PB19</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>PB12</t>
+          <t>PX06</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>PB10</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>AP02</t>
+          <t>PB15</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2017-09-04T21:55:23</t>
+          <t>2017-12-28T03:54:55</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2017-09-04T21:55:23</t>
+          <t>2017-12-28T03:54:59</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>2017-09-04T21:55:24</t>
+          <t>2017-12-28T03:55:08</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2017-09-04T21:55:27</t>
+          <t>2017-12-28T03:55:08</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>2017-09-04T21:55:28</t>
+          <t>2017-12-28T03:55:09</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>2017-09-04T21:55:30</t>
+          <t>2017-12-28T03:55:10</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>2017-09-04T21:55:31</t>
+          <t>2017-12-28T03:55:15</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>10405878</v>
+        <v>10950802</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>42996.57427083333</v>
+        <v>43365.55136574074</v>
       </c>
       <c r="C87" t="n">
-        <v>-31.8159</v>
+        <v>-25.8955</v>
       </c>
       <c r="D87" t="n">
-        <v>-72.0977</v>
+        <v>-71.03100000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>AC01</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>GO02</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>2017-09-18T13:47:10</t>
+          <t>2018-09-22T13:14:04</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2017-09-18T13:47:10</t>
+          <t>2018-09-22T13:14:15</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2017-09-18T13:47:12</t>
+          <t>2018-09-22T13:14:16</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>2017-09-18T13:47:13</t>
+          <t>2018-09-22T13:14:17</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>2017-09-18T13:47:14</t>
+          <t>2018-09-22T13:14:18</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>2017-09-18T13:47:16</t>
+          <t>2018-09-22T13:14:19</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>2017-09-18T13:47:17</t>
+          <t>2018-09-22T13:14:23</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10598859</v>
+        <v>10950985</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>43097.16309027778</v>
+        <v>43366.23068287037</v>
       </c>
       <c r="C88" t="n">
-        <v>-24.8866</v>
+        <v>-24.3503</v>
       </c>
       <c r="D88" t="n">
-        <v>-70.2184</v>
+        <v>-70.03230000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -8479,85 +8479,85 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
+          <t>PB19</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>PX06</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
           <t>GO02</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>AC01</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>PB19</t>
-        </is>
-      </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>PX06</t>
+          <t>PB10</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>PB10</t>
+          <t>PB15</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>PB15</t>
+          <t>PB05</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2017-12-28T03:54:55</t>
+          <t>2018-09-23T05:32:17</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2017-12-28T03:54:59</t>
+          <t>2018-09-23T05:32:22</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2017-12-28T03:55:08</t>
+          <t>2018-09-23T05:32:22</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2017-12-28T03:55:08</t>
+          <t>2018-09-23T05:32:23</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>2017-12-28T03:55:09</t>
+          <t>2018-09-23T05:32:24</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>2017-12-28T03:55:10</t>
+          <t>2018-09-23T05:32:28</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>2017-12-28T03:55:15</t>
+          <t>2018-09-23T05:32:31</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10950802</v>
+        <v>11000968</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>43365.55136574074</v>
+        <v>43495.32274305556</v>
       </c>
       <c r="C89" t="n">
-        <v>-25.8955</v>
+        <v>-25.8985</v>
       </c>
       <c r="D89" t="n">
-        <v>-71.03100000000001</v>
+        <v>-70.66759999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -8571,24 +8571,24 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
+          <t>GO02</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
           <t>AC07</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PB14</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>AC03</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>PB14</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>GO02</t>
-        </is>
-      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>AC06</t>
@@ -8596,60 +8596,60 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>AC02</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2018-09-22T13:14:04</t>
+          <t>2019-01-30T07:44:48</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2018-09-22T13:14:15</t>
+          <t>2019-01-30T07:45:01</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2018-09-22T13:14:16</t>
+          <t>2019-01-30T07:45:02</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2018-09-22T13:14:17</t>
+          <t>2019-01-30T07:45:02</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>2018-09-22T13:14:18</t>
+          <t>2019-01-30T07:45:03</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>2018-09-22T13:14:19</t>
+          <t>2019-01-30T07:45:05</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>2018-09-22T13:14:23</t>
+          <t>2019-01-30T07:45:07</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>10950985</v>
+        <v>11012422</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>43366.23068287037</v>
+        <v>43531.64893518519</v>
       </c>
       <c r="C90" t="n">
-        <v>-24.3503</v>
+        <v>-29.4648</v>
       </c>
       <c r="D90" t="n">
-        <v>-70.03230000000001</v>
+        <v>-72.69450000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -8658,90 +8658,90 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>PB19</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>PX06</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>GO02</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>PB10</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>PB15</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>PB05</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>2018-09-23T05:32:17</t>
+          <t>2019-03-07T15:34:43</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2018-09-23T05:32:22</t>
+          <t>2019-03-07T15:34:46</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2018-09-23T05:32:22</t>
+          <t>2019-03-07T15:34:46</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>2018-09-23T05:32:23</t>
+          <t>2019-03-07T15:34:46</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>2018-09-23T05:32:24</t>
+          <t>2019-03-07T15:34:48</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>2018-09-23T05:32:28</t>
+          <t>2019-03-07T15:34:52</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>2018-09-23T05:32:31</t>
+          <t>2019-03-07T15:34:52</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>11000968</v>
+        <v>11015386</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>43495.32274305556</v>
+        <v>43540.75434027778</v>
       </c>
       <c r="C91" t="n">
-        <v>-25.8985</v>
+        <v>-29.7737</v>
       </c>
       <c r="D91" t="n">
-        <v>-70.66759999999999</v>
+        <v>-71.5788</v>
       </c>
       <c r="E91" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -8750,90 +8750,90 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>AC01</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>GO02</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>AC02</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>2019-01-30T07:44:48</t>
+          <t>2019-03-16T18:06:19</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2019-01-30T07:45:01</t>
+          <t>2019-03-16T18:06:19</t>
         </is>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>2019-01-30T07:45:02</t>
+          <t>2019-03-16T18:06:19</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>2019-01-30T07:45:02</t>
+          <t>2019-03-16T18:06:22</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>2019-01-30T07:45:03</t>
+          <t>2019-03-16T18:06:25</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>2019-01-30T07:45:05</t>
+          <t>2019-03-16T18:06:25</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>2019-01-30T07:45:07</t>
+          <t>2019-03-16T18:06:27</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>11012422</v>
+        <v>11019536</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>43531.64893518519</v>
+        <v>43552.62883101852</v>
       </c>
       <c r="C92" t="n">
-        <v>-29.4648</v>
+        <v>-24.598</v>
       </c>
       <c r="D92" t="n">
-        <v>-72.69450000000001</v>
+        <v>-70.1015</v>
       </c>
       <c r="E92" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -8842,116 +8842,116 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>GO02</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>PB19</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>PB10</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>PX06</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>PB15</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>AC01</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>2019-03-07T15:34:43</t>
+          <t>2019-03-28T15:05:34</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2019-03-07T15:34:46</t>
+          <t>2019-03-28T15:05:41</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>2019-03-07T15:34:46</t>
+          <t>2019-03-28T15:05:44</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>2019-03-07T15:34:46</t>
+          <t>2019-03-28T15:05:46</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>2019-03-07T15:34:48</t>
+          <t>2019-03-28T15:05:46</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>2019-03-07T15:34:52</t>
+          <t>2019-03-28T15:05:51</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>2019-03-07T15:34:52</t>
+          <t>2019-03-28T15:05:53</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>11015386</v>
+        <v>11027159</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43540.75434027778</v>
+        <v>43573.17122685185</v>
       </c>
       <c r="C93" t="n">
-        <v>-29.7737</v>
+        <v>-29.3648</v>
       </c>
       <c r="D93" t="n">
-        <v>-71.5788</v>
+        <v>-71.5891</v>
       </c>
       <c r="E93" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
           <t>CO05</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>IN40</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>IN41</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>GO04</t>
@@ -8964,60 +8964,60 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>2019-03-16T18:06:19</t>
+          <t>2019-04-18T04:06:36</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2019-03-16T18:06:19</t>
+          <t>2019-04-18T04:06:42</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>2019-03-16T18:06:19</t>
+          <t>2019-04-18T04:06:43</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>2019-03-16T18:06:22</t>
+          <t>2019-04-18T04:06:43</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>2019-03-16T18:06:25</t>
+          <t>2019-04-18T04:06:48</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>2019-03-16T18:06:25</t>
+          <t>2019-04-18T04:06:48</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>2019-03-16T18:06:27</t>
+          <t>2019-04-18T04:06:51</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>11019536</v>
+        <v>11030576</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43552.62883101852</v>
+        <v>43581.2656712963</v>
       </c>
       <c r="C94" t="n">
-        <v>-24.598</v>
+        <v>-25.8987</v>
       </c>
       <c r="D94" t="n">
-        <v>-70.1015</v>
+        <v>-71.0119</v>
       </c>
       <c r="E94" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -9026,458 +9026,458 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
+          <t>AC01</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>AC07</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>AC03</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
           <t>PB14</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>GO02</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>PB19</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>PB10</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>PX06</t>
-        </is>
-      </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>PB15</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>AC01</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>2019-03-28T15:05:34</t>
+          <t>2019-04-26T06:22:40</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2019-03-28T15:05:41</t>
+          <t>2019-04-26T06:22:51</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>2019-03-28T15:05:44</t>
+          <t>2019-04-26T06:22:52</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>2019-03-28T15:05:46</t>
+          <t>2019-04-26T06:22:53</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>2019-03-28T15:05:46</t>
+          <t>2019-04-26T06:22:54</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>2019-03-28T15:05:51</t>
+          <t>2019-04-26T06:22:55</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>2019-03-28T15:05:53</t>
+          <t>2019-04-26T06:22:59</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>11027159</v>
+        <v>11044073</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43573.17122685185</v>
+        <v>43619.36269675926</v>
       </c>
       <c r="C95" t="n">
-        <v>-29.3648</v>
+        <v>-19.7049</v>
       </c>
       <c r="D95" t="n">
-        <v>-71.5891</v>
+        <v>-70.3788</v>
       </c>
       <c r="E95" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>2019-04-18T04:06:36</t>
+          <t>2019-06-03T08:42:20</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2019-04-18T04:06:42</t>
+          <t>2019-06-03T08:42:25</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2019-04-18T04:06:43</t>
+          <t>2019-06-03T08:42:26</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>2019-04-18T04:06:43</t>
+          <t>2019-06-03T08:42:27</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>2019-04-18T04:06:48</t>
+          <t>2019-06-03T08:42:27</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>2019-04-18T04:06:48</t>
+          <t>2019-06-03T08:42:29</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>2019-04-18T04:06:51</t>
+          <t>2019-06-03T08:42:29</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>11030576</v>
+        <v>11090368</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43581.2656712963</v>
+        <v>43679.03837962963</v>
       </c>
       <c r="C96" t="n">
-        <v>-25.8987</v>
+        <v>-34.1794</v>
       </c>
       <c r="D96" t="n">
-        <v>-71.0119</v>
+        <v>-72.19799999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>AC01</t>
+          <t>BO03</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>RPCO</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>RPRC</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>VA05</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GO02</t>
+          <t>GO05</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>MT01</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>BO01</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>2019-04-26T06:22:40</t>
+          <t>2019-08-02T00:55:21</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2019-04-26T06:22:51</t>
+          <t>2019-08-02T00:55:23</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>2019-04-26T06:22:52</t>
+          <t>2019-08-02T00:55:23</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>2019-04-26T06:22:53</t>
+          <t>2019-08-02T00:55:25</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>2019-04-26T06:22:54</t>
+          <t>2019-08-02T00:55:27</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>2019-04-26T06:22:55</t>
+          <t>2019-08-02T00:55:27</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>2019-04-26T06:22:59</t>
+          <t>2019-08-02T00:55:29</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>11044073</v>
+        <v>11122742</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43619.36269675926</v>
+        <v>43734.85518518519</v>
       </c>
       <c r="C97" t="n">
-        <v>-19.7049</v>
+        <v>-29.8648</v>
       </c>
       <c r="D97" t="n">
-        <v>-70.3788</v>
+        <v>-71.32170000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>2019-06-03T08:42:20</t>
+          <t>2019-09-26T20:31:29</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2019-06-03T08:42:25</t>
+          <t>2019-09-26T20:31:29</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>2019-06-03T08:42:26</t>
+          <t>2019-09-26T20:31:29</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>2019-06-03T08:42:27</t>
+          <t>2019-09-26T20:31:35</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>2019-06-03T08:42:27</t>
+          <t>2019-09-26T20:31:35</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>2019-06-03T08:42:29</t>
+          <t>2019-09-26T20:31:36</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>2019-06-03T08:42:29</t>
+          <t>2019-09-26T20:31:39</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>11090368</v>
+        <v>11153228</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43679.03837962963</v>
+        <v>43802.31215277778</v>
       </c>
       <c r="C98" t="n">
-        <v>-34.1794</v>
+        <v>-20.9328</v>
       </c>
       <c r="D98" t="n">
-        <v>-72.19799999999999</v>
+        <v>-70.7718</v>
       </c>
       <c r="E98" t="n">
         <v>5.4</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>BO03</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>RPCO</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>RPRC</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>VA05</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GO05</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>MT01</t>
+          <t>PB07</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>BO01</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2019-08-02T00:55:21</t>
+          <t>2019-12-03T07:29:38</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2019-08-02T00:55:23</t>
+          <t>2019-12-03T07:29:39</t>
         </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>2019-08-02T00:55:23</t>
+          <t>2019-12-03T07:29:42</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>2019-08-02T00:55:25</t>
+          <t>2019-12-03T07:29:42</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>2019-08-02T00:55:27</t>
+          <t>2019-12-03T07:29:44</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>2019-08-02T00:55:27</t>
+          <t>2019-12-03T07:29:45</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>2019-08-02T00:55:29</t>
+          <t>2019-12-03T07:29:46</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11122742</v>
+        <v>11176791</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43734.85518518519</v>
+        <v>43858.76162037037</v>
       </c>
       <c r="C99" t="n">
-        <v>-29.8648</v>
+        <v>-30.2403</v>
       </c>
       <c r="D99" t="n">
-        <v>-71.32170000000001</v>
+        <v>-72.3456</v>
       </c>
       <c r="E99" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -9486,550 +9486,550 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
           <t>CO05</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>IN40</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>GO04</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>TLL</t>
         </is>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>2019-09-26T20:31:29</t>
+          <t>2020-01-28T18:16:54</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2019-09-26T20:31:29</t>
+          <t>2020-01-28T18:16:56</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>2019-09-26T20:31:29</t>
+          <t>2020-01-28T18:16:57</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>2019-09-26T20:31:35</t>
+          <t>2020-01-28T18:16:57</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>2019-09-26T20:31:35</t>
+          <t>2020-01-28T18:17:01</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>2019-09-26T20:31:36</t>
+          <t>2020-01-28T18:17:02</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>2019-09-26T20:31:39</t>
+          <t>2020-01-28T18:17:02</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11153228</v>
+        <v>11183090</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43802.31215277778</v>
+        <v>43872.57641203704</v>
       </c>
       <c r="C100" t="n">
-        <v>-20.9328</v>
+        <v>-24.7868</v>
       </c>
       <c r="D100" t="n">
-        <v>-70.7718</v>
+        <v>-70.8845</v>
       </c>
       <c r="E100" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>GO02</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>PB10</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>AC01</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>PX06</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>PB07</t>
+          <t>PB19</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>PB01</t>
+          <t>PB05</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>2019-12-03T07:29:38</t>
+          <t>2020-02-11T13:50:08</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2019-12-03T07:29:39</t>
+          <t>2020-02-11T13:50:19</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>2019-12-03T07:29:42</t>
+          <t>2020-02-11T13:50:19</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>2019-12-03T07:29:42</t>
+          <t>2020-02-11T13:50:21</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>2019-12-03T07:29:44</t>
+          <t>2020-02-11T13:50:21</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>2019-12-03T07:29:45</t>
+          <t>2020-02-11T13:50:25</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>2019-12-03T07:29:46</t>
+          <t>2020-02-11T13:50:29</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11176791</v>
+        <v>11184035</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43858.76162037037</v>
+        <v>43874.24349537037</v>
       </c>
       <c r="C101" t="n">
-        <v>-30.2403</v>
+        <v>-20.9534</v>
       </c>
       <c r="D101" t="n">
-        <v>-72.3456</v>
+        <v>-70.78740000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>PB07</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>2020-01-28T18:16:54</t>
+          <t>2020-02-13T05:50:46</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2020-01-28T18:16:56</t>
+          <t>2020-02-13T05:50:47</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>2020-01-28T18:16:57</t>
+          <t>2020-02-13T05:50:50</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>2020-01-28T18:16:57</t>
+          <t>2020-02-13T05:50:50</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>2020-01-28T18:17:01</t>
+          <t>2020-02-13T05:50:52</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>2020-01-28T18:17:02</t>
+          <t>2020-02-13T05:50:53</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>2020-01-28T18:17:02</t>
+          <t>2020-02-13T05:50:54</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>11183090</v>
+        <v>11201836</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43872.57641203704</v>
+        <v>43914.28628472222</v>
       </c>
       <c r="C102" t="n">
-        <v>-24.7868</v>
+        <v>-30.6016</v>
       </c>
       <c r="D102" t="n">
-        <v>-70.8845</v>
+        <v>-71.9667</v>
       </c>
       <c r="E102" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>GO02</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>PB10</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>AC01</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>PX06</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>PB19</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>PB05</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>2020-02-11T13:50:08</t>
+          <t>2020-03-24T06:52:19</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2020-02-11T13:50:19</t>
+          <t>2020-03-24T06:52:26</t>
         </is>
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>2020-02-11T13:50:19</t>
+          <t>2020-03-24T06:52:27</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>2020-02-11T13:50:21</t>
+          <t>2020-03-24T06:52:27</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>2020-02-11T13:50:21</t>
+          <t>2020-03-24T06:52:29</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>2020-02-11T13:50:25</t>
+          <t>2020-03-24T06:52:30</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>2020-02-11T13:50:29</t>
+          <t>2020-03-24T06:52:30</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>11184035</v>
+        <v>11303714</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43874.24349537037</v>
+        <v>44075.22891203704</v>
       </c>
       <c r="C103" t="n">
-        <v>-20.9534</v>
+        <v>-27.9671</v>
       </c>
       <c r="D103" t="n">
-        <v>-70.78740000000001</v>
+        <v>-71.33669999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>PB07</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>PB01</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2020-02-13T05:50:46</t>
+          <t>2020-09-01T05:29:42</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2020-02-13T05:50:47</t>
+          <t>2020-09-01T05:29:50</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2020-02-13T05:50:50</t>
+          <t>2020-09-01T05:29:50</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>2020-02-13T05:50:50</t>
+          <t>2020-09-01T05:29:52</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>2020-02-13T05:50:52</t>
+          <t>2020-09-01T05:29:52</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>2020-02-13T05:50:53</t>
+          <t>2020-09-01T05:29:55</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>2020-02-13T05:50:54</t>
+          <t>2020-09-01T05:29:55</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>11201836</v>
+        <v>11303733</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>43914.28628472222</v>
+        <v>44075.29266203703</v>
       </c>
       <c r="C104" t="n">
-        <v>-30.6016</v>
+        <v>-27.9742</v>
       </c>
       <c r="D104" t="n">
-        <v>-71.9667</v>
+        <v>-71.423</v>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>2020-03-24T06:52:19</t>
+          <t>2020-09-01T07:01:31</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2020-03-24T06:52:26</t>
+          <t>2020-09-01T07:01:39</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>2020-03-24T06:52:27</t>
+          <t>2020-09-01T07:01:39</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>2020-03-24T06:52:27</t>
+          <t>2020-09-01T07:01:41</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>2020-03-24T06:52:29</t>
+          <t>2020-09-01T07:01:41</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>2020-03-24T06:52:30</t>
+          <t>2020-09-01T07:01:43</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>2020-03-24T06:52:30</t>
+          <t>2020-09-01T07:01:44</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>11303714</v>
+        <v>11303788</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>44075.22891203704</v>
+        <v>44075.43879629629</v>
       </c>
       <c r="C105" t="n">
-        <v>-27.9671</v>
+        <v>-27.8702</v>
       </c>
       <c r="D105" t="n">
-        <v>-71.33669999999999</v>
+        <v>-71.4003</v>
       </c>
       <c r="E105" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -10063,597 +10063,413 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
           <t>AC05</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>2020-09-01T05:29:42</t>
+          <t>2020-09-01T10:31:58</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2020-09-01T05:29:50</t>
+          <t>2020-09-01T10:32:03</t>
         </is>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>2020-09-01T05:29:50</t>
+          <t>2020-09-01T10:32:04</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>2020-09-01T05:29:52</t>
+          <t>2020-09-01T10:32:06</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>2020-09-01T05:29:52</t>
+          <t>2020-09-01T10:32:06</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>2020-09-01T05:29:55</t>
+          <t>2020-09-01T10:32:10</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>2020-09-01T05:29:55</t>
+          <t>2020-09-01T10:32:11</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11303733</v>
+        <v>11327993</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>44075.29266203703</v>
+        <v>44125.38409722222</v>
       </c>
       <c r="C106" t="n">
-        <v>-27.9742</v>
+        <v>-25.5231</v>
       </c>
       <c r="D106" t="n">
-        <v>-71.423</v>
+        <v>-70.9323</v>
       </c>
       <c r="E106" t="n">
         <v>5.7</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>PB14</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>AC01</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
+          <t>PB14</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>GO02</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>AC07</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
           <t>AC03</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>AC07</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>GO03</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
+      <c r="L106" t="inlineStr">
         <is>
           <t>AC06</t>
         </is>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>AC02</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>2020-09-01T07:01:31</t>
+          <t>2020-10-21T09:13:15</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2020-09-01T07:01:39</t>
+          <t>2020-10-21T09:13:19</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>2020-09-01T07:01:39</t>
+          <t>2020-10-21T09:13:23</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>2020-09-01T07:01:41</t>
+          <t>2020-10-21T09:13:28</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>2020-09-01T07:01:41</t>
+          <t>2020-10-21T09:13:29</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>2020-09-01T07:01:43</t>
+          <t>2020-10-21T09:13:32</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>2020-09-01T07:01:44</t>
+          <t>2020-10-21T09:13:34</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>11303788</v>
+        <v>11329891</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>44075.43879629629</v>
+        <v>44129.8869675926</v>
       </c>
       <c r="C107" t="n">
-        <v>-27.8702</v>
+        <v>-20.0028</v>
       </c>
       <c r="D107" t="n">
-        <v>-71.4003</v>
+        <v>-70.9648</v>
       </c>
       <c r="E107" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>2020-09-01T10:31:58</t>
+          <t>2020-10-25T21:17:25</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2020-09-01T10:32:03</t>
+          <t>2020-10-25T21:17:26</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>2020-09-01T10:32:04</t>
+          <t>2020-10-25T21:17:26</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>2020-09-01T10:32:06</t>
+          <t>2020-10-25T21:17:28</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>2020-09-01T10:32:06</t>
+          <t>2020-10-25T21:17:29</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>2020-09-01T10:32:10</t>
+          <t>2020-10-25T21:17:31</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>2020-09-01T10:32:11</t>
+          <t>2020-10-25T21:17:31</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>11327993</v>
+        <v>11330978</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>44125.38409722222</v>
+        <v>44132.62025462963</v>
       </c>
       <c r="C108" t="n">
-        <v>-25.5231</v>
+        <v>-29.3296</v>
       </c>
       <c r="D108" t="n">
-        <v>-70.9323</v>
+        <v>-71.214</v>
       </c>
       <c r="E108" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO01</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>AC01</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>PB14</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>GO02</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>AC02</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2020-10-21T09:13:15</t>
+          <t>2020-10-28T14:53:13</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2020-10-21T09:13:19</t>
+          <t>2020-10-28T14:53:18</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>2020-10-21T09:13:23</t>
+          <t>2020-10-28T14:53:18</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>2020-10-21T09:13:28</t>
+          <t>2020-10-28T14:53:19</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>2020-10-21T09:13:29</t>
+          <t>2020-10-28T14:53:22</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>2020-10-21T09:13:32</t>
+          <t>2020-10-28T14:53:22</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>2020-10-21T09:13:34</t>
+          <t>2020-10-28T14:53:23</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11329891</v>
+        <v>11341116</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>44129.8869675926</v>
+        <v>44156.09152777777</v>
       </c>
       <c r="C109" t="n">
-        <v>-20.0028</v>
+        <v>-30.917</v>
       </c>
       <c r="D109" t="n">
-        <v>-70.9648</v>
+        <v>-71.4498</v>
       </c>
       <c r="E109" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>2020-10-25T21:17:25</t>
+          <t>2020-11-21T02:11:51</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2020-10-25T21:17:26</t>
+          <t>2020-11-21T02:11:54</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>2020-10-25T21:17:26</t>
+          <t>2020-11-21T02:11:57</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>2020-10-25T21:17:28</t>
+          <t>2020-11-21T02:12:00</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>2020-10-25T21:17:29</t>
+          <t>2020-11-21T02:12:00</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>2020-10-25T21:17:31</t>
+          <t>2020-11-21T02:12:00</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
-        <is>
-          <t>2020-10-25T21:17:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>11330978</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>44132.62025462963</v>
-      </c>
-      <c r="C110" t="n">
-        <v>-29.3296</v>
-      </c>
-      <c r="D110" t="n">
-        <v>-71.214</v>
-      </c>
-      <c r="E110" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>CO01</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>2020-10-28T14:53:13</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>2020-10-28T14:53:18</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>2020-10-28T14:53:18</t>
-        </is>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>2020-10-28T14:53:19</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>2020-10-28T14:53:22</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>2020-10-28T14:53:22</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>2020-10-28T14:53:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>11341116</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>44156.09152777777</v>
-      </c>
-      <c r="C111" t="n">
-        <v>-30.917</v>
-      </c>
-      <c r="D111" t="n">
-        <v>-71.4498</v>
-      </c>
-      <c r="E111" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>CO02</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>CO06</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>CO02</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>CO03</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>2020-11-21T02:11:51</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>2020-11-21T02:11:54</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>2020-11-21T02:11:57</t>
-        </is>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>2020-11-21T02:12:00</t>
-        </is>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>2020-11-21T02:12:00</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>2020-11-21T02:12:00</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
         <is>
           <t>2020-11-21T02:12:01</t>
         </is>
